--- a/pred_ohlcv/54/2019-10-24 FAB ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-10-24 FAB ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H250"/>
+  <dimension ref="A1:I230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -408,16 +413,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5.82</v>
+        <v>5.74</v>
       </c>
       <c r="C2" t="n">
-        <v>5.82</v>
+        <v>5.74</v>
       </c>
       <c r="D2" t="n">
-        <v>5.82</v>
+        <v>5.74</v>
       </c>
       <c r="E2" t="n">
-        <v>5.82</v>
+        <v>5.74</v>
       </c>
       <c r="F2" t="n">
         <v>10</v>
@@ -426,6 +431,9 @@
         <v>5.831666666666666</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -437,21 +445,24 @@
         <v>5.82</v>
       </c>
       <c r="C3" t="n">
-        <v>5.88</v>
+        <v>5.82</v>
       </c>
       <c r="D3" t="n">
-        <v>5.88</v>
+        <v>5.82</v>
       </c>
       <c r="E3" t="n">
         <v>5.82</v>
       </c>
       <c r="F3" t="n">
-        <v>8792.222400000001</v>
+        <v>10</v>
       </c>
       <c r="G3" t="n">
-        <v>5.832666666666666</v>
+        <v>5.831666666666666</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -460,7 +471,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5.88</v>
+        <v>5.82</v>
       </c>
       <c r="C4" t="n">
         <v>5.88</v>
@@ -469,15 +480,18 @@
         <v>5.88</v>
       </c>
       <c r="E4" t="n">
-        <v>5.88</v>
+        <v>5.82</v>
       </c>
       <c r="F4" t="n">
-        <v>10</v>
+        <v>8792.222400000001</v>
       </c>
       <c r="G4" t="n">
-        <v>5.833666666666667</v>
+        <v>5.832666666666666</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -501,9 +515,12 @@
         <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>5.835833333333333</v>
+        <v>5.833666666666667</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -527,9 +544,12 @@
         <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>5.836833333333333</v>
+        <v>5.835833333333333</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -553,9 +573,12 @@
         <v>10</v>
       </c>
       <c r="G7" t="n">
-        <v>5.837666666666666</v>
+        <v>5.836833333333333</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -564,7 +587,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5.83</v>
+        <v>5.88</v>
       </c>
       <c r="C8" t="n">
         <v>5.88</v>
@@ -573,15 +596,18 @@
         <v>5.88</v>
       </c>
       <c r="E8" t="n">
-        <v>5.82</v>
+        <v>5.88</v>
       </c>
       <c r="F8" t="n">
-        <v>40379.7562</v>
+        <v>10</v>
       </c>
       <c r="G8" t="n">
-        <v>5.837833333333333</v>
+        <v>5.837666666666666</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -590,24 +616,27 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5.85</v>
+        <v>5.83</v>
       </c>
       <c r="C9" t="n">
-        <v>5.85</v>
+        <v>5.88</v>
       </c>
       <c r="D9" t="n">
-        <v>5.85</v>
+        <v>5.88</v>
       </c>
       <c r="E9" t="n">
-        <v>5.85</v>
+        <v>5.82</v>
       </c>
       <c r="F9" t="n">
-        <v>10</v>
+        <v>40379.7562</v>
       </c>
       <c r="G9" t="n">
-        <v>5.837333333333333</v>
+        <v>5.837833333333333</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -616,24 +645,27 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5.89</v>
+        <v>5.85</v>
       </c>
       <c r="C10" t="n">
-        <v>5.97</v>
+        <v>5.85</v>
       </c>
       <c r="D10" t="n">
-        <v>5.97</v>
+        <v>5.85</v>
       </c>
       <c r="E10" t="n">
-        <v>5.89</v>
+        <v>5.85</v>
       </c>
       <c r="F10" t="n">
-        <v>49885.4586</v>
+        <v>10</v>
       </c>
       <c r="G10" t="n">
-        <v>5.838833333333334</v>
+        <v>5.837333333333333</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -642,7 +674,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5.97</v>
+        <v>5.89</v>
       </c>
       <c r="C11" t="n">
         <v>5.97</v>
@@ -651,15 +683,18 @@
         <v>5.97</v>
       </c>
       <c r="E11" t="n">
-        <v>5.92</v>
+        <v>5.89</v>
       </c>
       <c r="F11" t="n">
-        <v>36407.3342</v>
+        <v>49885.4586</v>
       </c>
       <c r="G11" t="n">
-        <v>5.840000000000002</v>
+        <v>5.838833333333334</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -677,15 +712,18 @@
         <v>5.97</v>
       </c>
       <c r="E12" t="n">
-        <v>5.97</v>
+        <v>5.92</v>
       </c>
       <c r="F12" t="n">
-        <v>30</v>
+        <v>36407.3342</v>
       </c>
       <c r="G12" t="n">
-        <v>5.841333333333336</v>
+        <v>5.840000000000002</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -694,24 +732,27 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5.96</v>
+        <v>5.97</v>
       </c>
       <c r="C13" t="n">
-        <v>6.03</v>
+        <v>5.97</v>
       </c>
       <c r="D13" t="n">
-        <v>6.03</v>
+        <v>5.97</v>
       </c>
       <c r="E13" t="n">
-        <v>5.96</v>
+        <v>5.97</v>
       </c>
       <c r="F13" t="n">
-        <v>226576.3245</v>
+        <v>30</v>
       </c>
       <c r="G13" t="n">
-        <v>5.843666666666668</v>
+        <v>5.841333333333336</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -720,7 +761,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6.03</v>
+        <v>5.96</v>
       </c>
       <c r="C14" t="n">
         <v>6.03</v>
@@ -729,15 +770,18 @@
         <v>6.03</v>
       </c>
       <c r="E14" t="n">
-        <v>6.03</v>
+        <v>5.96</v>
       </c>
       <c r="F14" t="n">
-        <v>28298.5074</v>
+        <v>226576.3245</v>
       </c>
       <c r="G14" t="n">
-        <v>5.845833333333335</v>
+        <v>5.843666666666668</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -746,25 +790,28 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5.97</v>
+        <v>6.03</v>
       </c>
       <c r="C15" t="n">
-        <v>5.97</v>
+        <v>6.03</v>
       </c>
       <c r="D15" t="n">
-        <v>5.97</v>
+        <v>6.03</v>
       </c>
       <c r="E15" t="n">
-        <v>5.97</v>
+        <v>6.03</v>
       </c>
       <c r="F15" t="n">
-        <v>51004</v>
+        <v>28298.5074</v>
       </c>
       <c r="G15" t="n">
-        <v>5.846833333333335</v>
+        <v>5.845833333333335</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -772,24 +819,27 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>6.02</v>
+        <v>5.97</v>
       </c>
       <c r="C16" t="n">
-        <v>6.02</v>
+        <v>5.97</v>
       </c>
       <c r="D16" t="n">
-        <v>6.02</v>
+        <v>5.97</v>
       </c>
       <c r="E16" t="n">
-        <v>6.02</v>
+        <v>5.97</v>
       </c>
       <c r="F16" t="n">
-        <v>10</v>
+        <v>51004</v>
       </c>
       <c r="G16" t="n">
-        <v>5.848666666666668</v>
+        <v>5.846833333333335</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -810,12 +860,15 @@
         <v>6.02</v>
       </c>
       <c r="F17" t="n">
-        <v>877.9784</v>
+        <v>10</v>
       </c>
       <c r="G17" t="n">
-        <v>5.8505</v>
+        <v>5.848666666666668</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -836,12 +889,15 @@
         <v>6.02</v>
       </c>
       <c r="F18" t="n">
-        <v>100</v>
+        <v>877.9784</v>
       </c>
       <c r="G18" t="n">
-        <v>5.852333333333333</v>
+        <v>5.8505</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -853,21 +909,24 @@
         <v>6.02</v>
       </c>
       <c r="C19" t="n">
-        <v>5.94</v>
+        <v>6.02</v>
       </c>
       <c r="D19" t="n">
         <v>6.02</v>
       </c>
       <c r="E19" t="n">
-        <v>5.94</v>
+        <v>6.02</v>
       </c>
       <c r="F19" t="n">
-        <v>18583.4734</v>
+        <v>100</v>
       </c>
       <c r="G19" t="n">
-        <v>5.852833333333333</v>
+        <v>5.852333333333333</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -876,24 +935,27 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5.91</v>
+        <v>6.02</v>
       </c>
       <c r="C20" t="n">
-        <v>5.9</v>
+        <v>5.94</v>
       </c>
       <c r="D20" t="n">
-        <v>5.91</v>
+        <v>6.02</v>
       </c>
       <c r="E20" t="n">
-        <v>5.7</v>
+        <v>5.94</v>
       </c>
       <c r="F20" t="n">
-        <v>410533.6873</v>
+        <v>18583.4734</v>
       </c>
       <c r="G20" t="n">
-        <v>5.852499999999998</v>
+        <v>5.852833333333333</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -902,24 +964,27 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5.81</v>
+        <v>5.91</v>
       </c>
       <c r="C21" t="n">
-        <v>5.78</v>
+        <v>5.9</v>
       </c>
       <c r="D21" t="n">
-        <v>5.81</v>
+        <v>5.91</v>
       </c>
       <c r="E21" t="n">
-        <v>5.78</v>
+        <v>5.7</v>
       </c>
       <c r="F21" t="n">
-        <v>62958.0688</v>
+        <v>410533.6873</v>
       </c>
       <c r="G21" t="n">
-        <v>5.849166666666664</v>
+        <v>5.852499999999998</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -928,24 +993,27 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>5.74</v>
+        <v>5.81</v>
       </c>
       <c r="C22" t="n">
-        <v>5.74</v>
+        <v>5.78</v>
       </c>
       <c r="D22" t="n">
-        <v>5.74</v>
+        <v>5.81</v>
       </c>
       <c r="E22" t="n">
-        <v>5.74</v>
+        <v>5.78</v>
       </c>
       <c r="F22" t="n">
-        <v>31618.2816</v>
+        <v>62958.0688</v>
       </c>
       <c r="G22" t="n">
-        <v>5.845166666666665</v>
+        <v>5.849166666666664</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -954,24 +1022,27 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>5.84</v>
+        <v>5.74</v>
       </c>
       <c r="C23" t="n">
-        <v>5.84</v>
+        <v>5.74</v>
       </c>
       <c r="D23" t="n">
-        <v>5.84</v>
+        <v>5.74</v>
       </c>
       <c r="E23" t="n">
-        <v>5.84</v>
+        <v>5.74</v>
       </c>
       <c r="F23" t="n">
-        <v>16271.7478</v>
+        <v>31618.2816</v>
       </c>
       <c r="G23" t="n">
-        <v>5.843666666666664</v>
+        <v>5.845166666666665</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -983,21 +1054,24 @@
         <v>5.84</v>
       </c>
       <c r="C24" t="n">
-        <v>5.83</v>
+        <v>5.84</v>
       </c>
       <c r="D24" t="n">
         <v>5.84</v>
       </c>
       <c r="E24" t="n">
-        <v>5.83</v>
+        <v>5.84</v>
       </c>
       <c r="F24" t="n">
-        <v>72325</v>
+        <v>16271.7478</v>
       </c>
       <c r="G24" t="n">
-        <v>5.841999999999997</v>
+        <v>5.843666666666664</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1006,24 +1080,27 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>5.89</v>
+        <v>5.84</v>
       </c>
       <c r="C25" t="n">
-        <v>5.89</v>
+        <v>5.83</v>
       </c>
       <c r="D25" t="n">
-        <v>5.89</v>
+        <v>5.84</v>
       </c>
       <c r="E25" t="n">
-        <v>5.89</v>
+        <v>5.83</v>
       </c>
       <c r="F25" t="n">
-        <v>20</v>
+        <v>72325</v>
       </c>
       <c r="G25" t="n">
-        <v>5.841333333333329</v>
+        <v>5.841999999999997</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1032,24 +1109,27 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>5.84</v>
+        <v>5.89</v>
       </c>
       <c r="C26" t="n">
-        <v>5.84</v>
+        <v>5.89</v>
       </c>
       <c r="D26" t="n">
-        <v>5.84</v>
+        <v>5.89</v>
       </c>
       <c r="E26" t="n">
-        <v>5.84</v>
+        <v>5.89</v>
       </c>
       <c r="F26" t="n">
-        <v>78.2051</v>
+        <v>20</v>
       </c>
       <c r="G26" t="n">
-        <v>5.838999999999996</v>
+        <v>5.841333333333329</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1058,24 +1138,27 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>5.81</v>
+        <v>5.84</v>
       </c>
       <c r="C27" t="n">
-        <v>5.81</v>
+        <v>5.84</v>
       </c>
       <c r="D27" t="n">
-        <v>5.81</v>
+        <v>5.84</v>
       </c>
       <c r="E27" t="n">
-        <v>5.81</v>
+        <v>5.84</v>
       </c>
       <c r="F27" t="n">
-        <v>29618.2816</v>
+        <v>78.2051</v>
       </c>
       <c r="G27" t="n">
-        <v>5.837666666666663</v>
+        <v>5.838999999999996</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1084,24 +1167,27 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>5.8</v>
+        <v>5.81</v>
       </c>
       <c r="C28" t="n">
-        <v>5.8</v>
+        <v>5.81</v>
       </c>
       <c r="D28" t="n">
-        <v>5.8</v>
+        <v>5.81</v>
       </c>
       <c r="E28" t="n">
-        <v>5.8</v>
+        <v>5.81</v>
       </c>
       <c r="F28" t="n">
-        <v>13281.653</v>
+        <v>29618.2816</v>
       </c>
       <c r="G28" t="n">
-        <v>5.836499999999996</v>
+        <v>5.837666666666663</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1122,12 +1208,15 @@
         <v>5.8</v>
       </c>
       <c r="F29" t="n">
-        <v>8172.7111</v>
+        <v>13281.653</v>
       </c>
       <c r="G29" t="n">
         <v>5.836499999999996</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1136,24 +1225,27 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="C30" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="D30" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="E30" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="F30" t="n">
-        <v>20</v>
+        <v>8172.7111</v>
       </c>
       <c r="G30" t="n">
-        <v>5.838999999999996</v>
+        <v>5.836499999999996</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1174,12 +1266,15 @@
         <v>5.9</v>
       </c>
       <c r="F31" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G31" t="n">
-        <v>5.840499999999995</v>
+        <v>5.838999999999996</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1200,12 +1295,15 @@
         <v>5.9</v>
       </c>
       <c r="F32" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G32" t="n">
-        <v>5.841166666666662</v>
+        <v>5.840499999999995</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1226,12 +1324,15 @@
         <v>5.9</v>
       </c>
       <c r="F33" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G33" t="n">
-        <v>5.841666666666661</v>
+        <v>5.841166666666662</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1252,12 +1353,15 @@
         <v>5.9</v>
       </c>
       <c r="F34" t="n">
-        <v>201.8644</v>
+        <v>100</v>
       </c>
       <c r="G34" t="n">
-        <v>5.844833333333328</v>
+        <v>5.841666666666661</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1278,12 +1382,15 @@
         <v>5.9</v>
       </c>
       <c r="F35" t="n">
-        <v>10</v>
+        <v>201.8644</v>
       </c>
       <c r="G35" t="n">
-        <v>5.849499999999994</v>
+        <v>5.844833333333328</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1307,9 +1414,12 @@
         <v>10</v>
       </c>
       <c r="G36" t="n">
-        <v>5.851833333333327</v>
+        <v>5.849499999999994</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1318,24 +1428,27 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>5.84</v>
+        <v>5.9</v>
       </c>
       <c r="C37" t="n">
-        <v>5.84</v>
+        <v>5.9</v>
       </c>
       <c r="D37" t="n">
-        <v>5.84</v>
+        <v>5.9</v>
       </c>
       <c r="E37" t="n">
-        <v>5.84</v>
+        <v>5.9</v>
       </c>
       <c r="F37" t="n">
-        <v>208.7587</v>
+        <v>10</v>
       </c>
       <c r="G37" t="n">
-        <v>5.85516666666666</v>
+        <v>5.851833333333327</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1344,24 +1457,27 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>5.9</v>
+        <v>5.84</v>
       </c>
       <c r="C38" t="n">
-        <v>5.9</v>
+        <v>5.84</v>
       </c>
       <c r="D38" t="n">
-        <v>5.9</v>
+        <v>5.84</v>
       </c>
       <c r="E38" t="n">
-        <v>5.9</v>
+        <v>5.84</v>
       </c>
       <c r="F38" t="n">
-        <v>20</v>
+        <v>208.7587</v>
       </c>
       <c r="G38" t="n">
-        <v>5.858333333333326</v>
+        <v>5.85516666666666</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1370,24 +1486,27 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>5.88</v>
+        <v>5.9</v>
       </c>
       <c r="C39" t="n">
-        <v>5.88</v>
+        <v>5.9</v>
       </c>
       <c r="D39" t="n">
-        <v>5.88</v>
+        <v>5.9</v>
       </c>
       <c r="E39" t="n">
-        <v>5.88</v>
+        <v>5.9</v>
       </c>
       <c r="F39" t="n">
-        <v>510.2040816326531</v>
+        <v>20</v>
       </c>
       <c r="G39" t="n">
-        <v>5.86066666666666</v>
+        <v>5.858333333333326</v>
       </c>
       <c r="H39" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1396,7 +1515,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>5.84</v>
+        <v>5.88</v>
       </c>
       <c r="C40" t="n">
         <v>5.88</v>
@@ -1405,15 +1524,18 @@
         <v>5.88</v>
       </c>
       <c r="E40" t="n">
-        <v>5.84</v>
+        <v>5.88</v>
       </c>
       <c r="F40" t="n">
-        <v>67663.10890000001</v>
+        <v>510.2040816326531</v>
       </c>
       <c r="G40" t="n">
-        <v>5.864999999999993</v>
+        <v>5.86066666666666</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1425,21 +1547,24 @@
         <v>5.84</v>
       </c>
       <c r="C41" t="n">
-        <v>5.84</v>
+        <v>5.88</v>
       </c>
       <c r="D41" t="n">
-        <v>5.84</v>
+        <v>5.88</v>
       </c>
       <c r="E41" t="n">
         <v>5.84</v>
       </c>
       <c r="F41" t="n">
-        <v>64689.6086</v>
+        <v>67663.10890000001</v>
       </c>
       <c r="G41" t="n">
-        <v>5.868666666666659</v>
+        <v>5.864999999999993</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1448,24 +1573,27 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>5.81</v>
+        <v>5.84</v>
       </c>
       <c r="C42" t="n">
-        <v>5.81</v>
+        <v>5.84</v>
       </c>
       <c r="D42" t="n">
-        <v>5.81</v>
+        <v>5.84</v>
       </c>
       <c r="E42" t="n">
-        <v>5.81</v>
+        <v>5.84</v>
       </c>
       <c r="F42" t="n">
-        <v>85534</v>
+        <v>64689.6086</v>
       </c>
       <c r="G42" t="n">
-        <v>5.87066666666666</v>
+        <v>5.868666666666659</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1474,24 +1602,27 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>5.85</v>
+        <v>5.81</v>
       </c>
       <c r="C43" t="n">
-        <v>5.86</v>
+        <v>5.81</v>
       </c>
       <c r="D43" t="n">
-        <v>5.86</v>
+        <v>5.81</v>
       </c>
       <c r="E43" t="n">
-        <v>5.85</v>
+        <v>5.81</v>
       </c>
       <c r="F43" t="n">
-        <v>20</v>
+        <v>85534</v>
       </c>
       <c r="G43" t="n">
-        <v>5.873499999999993</v>
+        <v>5.87066666666666</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1500,7 +1631,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>5.86</v>
+        <v>5.85</v>
       </c>
       <c r="C44" t="n">
         <v>5.86</v>
@@ -1509,15 +1640,18 @@
         <v>5.86</v>
       </c>
       <c r="E44" t="n">
-        <v>5.86</v>
+        <v>5.85</v>
       </c>
       <c r="F44" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G44" t="n">
-        <v>5.877666666666659</v>
+        <v>5.873499999999993</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1529,21 +1663,24 @@
         <v>5.86</v>
       </c>
       <c r="C45" t="n">
-        <v>5.88</v>
+        <v>5.86</v>
       </c>
       <c r="D45" t="n">
-        <v>5.88</v>
+        <v>5.86</v>
       </c>
       <c r="E45" t="n">
         <v>5.86</v>
       </c>
       <c r="F45" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G45" t="n">
-        <v>5.880833333333326</v>
+        <v>5.877666666666659</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1552,7 +1689,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>5.88</v>
+        <v>5.86</v>
       </c>
       <c r="C46" t="n">
         <v>5.88</v>
@@ -1561,15 +1698,18 @@
         <v>5.88</v>
       </c>
       <c r="E46" t="n">
-        <v>5.88</v>
+        <v>5.86</v>
       </c>
       <c r="F46" t="n">
-        <v>57397.9591</v>
+        <v>20</v>
       </c>
       <c r="G46" t="n">
-        <v>5.884333333333326</v>
+        <v>5.880833333333326</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1590,12 +1730,15 @@
         <v>5.88</v>
       </c>
       <c r="F47" t="n">
-        <v>10</v>
+        <v>57397.9591</v>
       </c>
       <c r="G47" t="n">
-        <v>5.881666666666659</v>
+        <v>5.884333333333326</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1616,12 +1759,15 @@
         <v>5.88</v>
       </c>
       <c r="F48" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G48" t="n">
-        <v>5.880333333333326</v>
+        <v>5.881666666666659</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1642,12 +1788,15 @@
         <v>5.88</v>
       </c>
       <c r="F49" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G49" t="n">
-        <v>5.878999999999992</v>
+        <v>5.880333333333326</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1671,9 +1820,12 @@
         <v>10</v>
       </c>
       <c r="G50" t="n">
-        <v>5.877999999999992</v>
+        <v>5.878999999999992</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1697,9 +1849,12 @@
         <v>10</v>
       </c>
       <c r="G51" t="n">
-        <v>5.878499999999992</v>
+        <v>5.877999999999992</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1723,9 +1878,12 @@
         <v>10</v>
       </c>
       <c r="G52" t="n">
-        <v>5.879499999999992</v>
+        <v>5.878499999999992</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1734,24 +1892,27 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>5.84</v>
+        <v>5.88</v>
       </c>
       <c r="C53" t="n">
-        <v>5.84</v>
+        <v>5.88</v>
       </c>
       <c r="D53" t="n">
-        <v>5.84</v>
+        <v>5.88</v>
       </c>
       <c r="E53" t="n">
-        <v>5.84</v>
+        <v>5.88</v>
       </c>
       <c r="F53" t="n">
-        <v>3500</v>
+        <v>10</v>
       </c>
       <c r="G53" t="n">
-        <v>5.878499999999992</v>
+        <v>5.879499999999992</v>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1760,24 +1921,27 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>5.88</v>
+        <v>5.84</v>
       </c>
       <c r="C54" t="n">
-        <v>5.9</v>
+        <v>5.84</v>
       </c>
       <c r="D54" t="n">
-        <v>5.9</v>
+        <v>5.84</v>
       </c>
       <c r="E54" t="n">
-        <v>5.88</v>
+        <v>5.84</v>
       </c>
       <c r="F54" t="n">
-        <v>213594.9985</v>
+        <v>3500</v>
       </c>
       <c r="G54" t="n">
-        <v>5.878666666666659</v>
+        <v>5.878499999999992</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1786,7 +1950,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>5.9</v>
+        <v>5.88</v>
       </c>
       <c r="C55" t="n">
         <v>5.9</v>
@@ -1795,15 +1959,18 @@
         <v>5.9</v>
       </c>
       <c r="E55" t="n">
-        <v>5.9</v>
+        <v>5.88</v>
       </c>
       <c r="F55" t="n">
-        <v>10</v>
+        <v>213594.9985</v>
       </c>
       <c r="G55" t="n">
-        <v>5.880166666666658</v>
+        <v>5.878666666666659</v>
       </c>
       <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1827,9 +1994,12 @@
         <v>10</v>
       </c>
       <c r="G56" t="n">
-        <v>5.881499999999991</v>
+        <v>5.880166666666658</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1850,12 +2020,15 @@
         <v>5.9</v>
       </c>
       <c r="F57" t="n">
-        <v>66184.2372</v>
+        <v>10</v>
       </c>
       <c r="G57" t="n">
-        <v>5.882833333333324</v>
+        <v>5.881499999999991</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1867,21 +2040,24 @@
         <v>5.9</v>
       </c>
       <c r="C58" t="n">
-        <v>5.87</v>
+        <v>5.9</v>
       </c>
       <c r="D58" t="n">
         <v>5.9</v>
       </c>
       <c r="E58" t="n">
-        <v>5.87</v>
+        <v>5.9</v>
       </c>
       <c r="F58" t="n">
-        <v>33660.7626</v>
+        <v>66184.2372</v>
       </c>
       <c r="G58" t="n">
-        <v>5.883666666666658</v>
+        <v>5.882833333333324</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1890,24 +2066,27 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>5.84</v>
+        <v>5.9</v>
       </c>
       <c r="C59" t="n">
-        <v>5.84</v>
+        <v>5.87</v>
       </c>
       <c r="D59" t="n">
-        <v>5.84</v>
+        <v>5.9</v>
       </c>
       <c r="E59" t="n">
-        <v>5.84</v>
+        <v>5.87</v>
       </c>
       <c r="F59" t="n">
-        <v>26353</v>
+        <v>33660.7626</v>
       </c>
       <c r="G59" t="n">
-        <v>5.883999999999991</v>
+        <v>5.883666666666658</v>
       </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1916,24 +2095,27 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>5.83</v>
+        <v>5.84</v>
       </c>
       <c r="C60" t="n">
-        <v>5.83</v>
+        <v>5.84</v>
       </c>
       <c r="D60" t="n">
-        <v>5.83</v>
+        <v>5.84</v>
       </c>
       <c r="E60" t="n">
-        <v>5.83</v>
+        <v>5.84</v>
       </c>
       <c r="F60" t="n">
-        <v>10</v>
+        <v>26353</v>
       </c>
       <c r="G60" t="n">
-        <v>5.884166666666657</v>
+        <v>5.883999999999991</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1942,24 +2124,27 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>5.84</v>
+        <v>5.83</v>
       </c>
       <c r="C61" t="n">
-        <v>5.84</v>
+        <v>5.83</v>
       </c>
       <c r="D61" t="n">
-        <v>5.84</v>
+        <v>5.83</v>
       </c>
       <c r="E61" t="n">
-        <v>5.84</v>
+        <v>5.83</v>
       </c>
       <c r="F61" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G61" t="n">
-        <v>5.885833333333323</v>
+        <v>5.884166666666657</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1968,24 +2153,27 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>5.9</v>
+        <v>5.84</v>
       </c>
       <c r="C62" t="n">
-        <v>5.9</v>
+        <v>5.84</v>
       </c>
       <c r="D62" t="n">
-        <v>5.9</v>
+        <v>5.84</v>
       </c>
       <c r="E62" t="n">
-        <v>5.9</v>
+        <v>5.84</v>
       </c>
       <c r="F62" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G62" t="n">
-        <v>5.887166666666657</v>
+        <v>5.885833333333323</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2009,9 +2197,12 @@
         <v>10</v>
       </c>
       <c r="G63" t="n">
-        <v>5.88749999999999</v>
+        <v>5.887166666666657</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2020,24 +2211,27 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>5.84</v>
+        <v>5.9</v>
       </c>
       <c r="C64" t="n">
-        <v>5.84</v>
+        <v>5.9</v>
       </c>
       <c r="D64" t="n">
-        <v>5.84</v>
+        <v>5.9</v>
       </c>
       <c r="E64" t="n">
-        <v>5.84</v>
+        <v>5.9</v>
       </c>
       <c r="F64" t="n">
-        <v>43847</v>
+        <v>10</v>
       </c>
       <c r="G64" t="n">
-        <v>5.886833333333323</v>
+        <v>5.88749999999999</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2046,24 +2240,27 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>5.88</v>
+        <v>5.84</v>
       </c>
       <c r="C65" t="n">
-        <v>5.89</v>
+        <v>5.84</v>
       </c>
       <c r="D65" t="n">
-        <v>5.89</v>
+        <v>5.84</v>
       </c>
       <c r="E65" t="n">
-        <v>5.88</v>
+        <v>5.84</v>
       </c>
       <c r="F65" t="n">
-        <v>42355.352</v>
+        <v>43847</v>
       </c>
       <c r="G65" t="n">
-        <v>5.886999999999989</v>
+        <v>5.886833333333323</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2072,10 +2269,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="C66" t="n">
         <v>5.89</v>
-      </c>
-      <c r="C66" t="n">
-        <v>5.88</v>
       </c>
       <c r="D66" t="n">
         <v>5.89</v>
@@ -2084,12 +2281,15 @@
         <v>5.88</v>
       </c>
       <c r="F66" t="n">
-        <v>116140.6859</v>
+        <v>42355.352</v>
       </c>
       <c r="G66" t="n">
         <v>5.886999999999989</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2098,24 +2298,27 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>5.88</v>
+        <v>5.89</v>
       </c>
       <c r="C67" t="n">
         <v>5.88</v>
       </c>
       <c r="D67" t="n">
-        <v>5.88</v>
+        <v>5.89</v>
       </c>
       <c r="E67" t="n">
         <v>5.88</v>
       </c>
       <c r="F67" t="n">
-        <v>20</v>
+        <v>116140.6859</v>
       </c>
       <c r="G67" t="n">
         <v>5.886999999999989</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2136,12 +2339,15 @@
         <v>5.88</v>
       </c>
       <c r="F68" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G68" t="n">
         <v>5.886999999999989</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2150,7 +2356,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.82</v>
+        <v>5.88</v>
       </c>
       <c r="C69" t="n">
         <v>5.88</v>
@@ -2159,15 +2365,18 @@
         <v>5.88</v>
       </c>
       <c r="E69" t="n">
-        <v>5.82</v>
+        <v>5.88</v>
       </c>
       <c r="F69" t="n">
-        <v>22344.0935</v>
+        <v>10</v>
       </c>
       <c r="G69" t="n">
-        <v>5.887499999999989</v>
+        <v>5.886999999999989</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2176,7 +2385,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>5.88</v>
+        <v>5.82</v>
       </c>
       <c r="C70" t="n">
         <v>5.88</v>
@@ -2185,15 +2394,18 @@
         <v>5.88</v>
       </c>
       <c r="E70" t="n">
-        <v>5.88</v>
+        <v>5.82</v>
       </c>
       <c r="F70" t="n">
-        <v>10</v>
+        <v>22344.0935</v>
       </c>
       <c r="G70" t="n">
-        <v>5.885999999999988</v>
+        <v>5.887499999999989</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2217,9 +2429,12 @@
         <v>10</v>
       </c>
       <c r="G71" t="n">
-        <v>5.884499999999988</v>
+        <v>5.885999999999988</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2228,24 +2443,27 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>5.83</v>
+        <v>5.88</v>
       </c>
       <c r="C72" t="n">
-        <v>5.83</v>
+        <v>5.88</v>
       </c>
       <c r="D72" t="n">
-        <v>5.83</v>
+        <v>5.88</v>
       </c>
       <c r="E72" t="n">
-        <v>5.83</v>
+        <v>5.88</v>
       </c>
       <c r="F72" t="n">
-        <v>21851.4378</v>
+        <v>10</v>
       </c>
       <c r="G72" t="n">
-        <v>5.882166666666653</v>
+        <v>5.884499999999988</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2266,12 +2484,15 @@
         <v>5.83</v>
       </c>
       <c r="F73" t="n">
-        <v>43088.1835</v>
+        <v>21851.4378</v>
       </c>
       <c r="G73" t="n">
-        <v>5.87883333333332</v>
+        <v>5.882166666666653</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2292,12 +2513,15 @@
         <v>5.83</v>
       </c>
       <c r="F74" t="n">
-        <v>73941</v>
+        <v>43088.1835</v>
       </c>
       <c r="G74" t="n">
-        <v>5.875499999999987</v>
+        <v>5.87883333333332</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2318,12 +2542,15 @@
         <v>5.83</v>
       </c>
       <c r="F75" t="n">
-        <v>48835</v>
+        <v>73941</v>
       </c>
       <c r="G75" t="n">
-        <v>5.873166666666653</v>
+        <v>5.875499999999987</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2344,12 +2571,15 @@
         <v>5.83</v>
       </c>
       <c r="F76" t="n">
-        <v>17679.3602</v>
+        <v>48835</v>
       </c>
       <c r="G76" t="n">
-        <v>5.869999999999987</v>
+        <v>5.873166666666653</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2358,24 +2588,27 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>5.88</v>
+        <v>5.83</v>
       </c>
       <c r="C77" t="n">
-        <v>5.88</v>
+        <v>5.83</v>
       </c>
       <c r="D77" t="n">
-        <v>5.88</v>
+        <v>5.83</v>
       </c>
       <c r="E77" t="n">
-        <v>5.88</v>
+        <v>5.83</v>
       </c>
       <c r="F77" t="n">
-        <v>20</v>
+        <v>17679.3602</v>
       </c>
       <c r="G77" t="n">
-        <v>5.867666666666653</v>
+        <v>5.869999999999987</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2396,12 +2629,15 @@
         <v>5.88</v>
       </c>
       <c r="F78" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G78" t="n">
-        <v>5.865333333333321</v>
+        <v>5.867666666666653</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2410,24 +2646,27 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>5.83</v>
+        <v>5.88</v>
       </c>
       <c r="C79" t="n">
-        <v>5.83</v>
+        <v>5.88</v>
       </c>
       <c r="D79" t="n">
-        <v>5.83</v>
+        <v>5.88</v>
       </c>
       <c r="E79" t="n">
-        <v>5.83</v>
+        <v>5.88</v>
       </c>
       <c r="F79" t="n">
-        <v>55130.7552</v>
+        <v>100</v>
       </c>
       <c r="G79" t="n">
-        <v>5.863499999999987</v>
+        <v>5.865333333333321</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2448,12 +2687,15 @@
         <v>5.83</v>
       </c>
       <c r="F80" t="n">
-        <v>5760.1429</v>
+        <v>55130.7552</v>
       </c>
       <c r="G80" t="n">
-        <v>5.862333333333321</v>
+        <v>5.863499999999987</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2462,24 +2704,27 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>5.88</v>
+        <v>5.83</v>
       </c>
       <c r="C81" t="n">
-        <v>5.88</v>
+        <v>5.83</v>
       </c>
       <c r="D81" t="n">
-        <v>5.88</v>
+        <v>5.83</v>
       </c>
       <c r="E81" t="n">
-        <v>5.88</v>
+        <v>5.83</v>
       </c>
       <c r="F81" t="n">
-        <v>10</v>
+        <v>5760.1429</v>
       </c>
       <c r="G81" t="n">
-        <v>5.863999999999987</v>
+        <v>5.862333333333321</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2500,12 +2745,15 @@
         <v>5.88</v>
       </c>
       <c r="F82" t="n">
-        <v>21142.6113</v>
+        <v>10</v>
       </c>
       <c r="G82" t="n">
-        <v>5.86633333333332</v>
+        <v>5.863999999999987</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2514,24 +2762,27 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>5.89</v>
+        <v>5.88</v>
       </c>
       <c r="C83" t="n">
-        <v>5.9</v>
+        <v>5.88</v>
       </c>
       <c r="D83" t="n">
-        <v>5.9</v>
+        <v>5.88</v>
       </c>
       <c r="E83" t="n">
-        <v>5.89</v>
+        <v>5.88</v>
       </c>
       <c r="F83" t="n">
-        <v>44940.47</v>
+        <v>21142.6113</v>
       </c>
       <c r="G83" t="n">
-        <v>5.86733333333332</v>
+        <v>5.86633333333332</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2540,7 +2791,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>5.9</v>
+        <v>5.89</v>
       </c>
       <c r="C84" t="n">
         <v>5.9</v>
@@ -2549,15 +2800,18 @@
         <v>5.9</v>
       </c>
       <c r="E84" t="n">
-        <v>5.9</v>
+        <v>5.89</v>
       </c>
       <c r="F84" t="n">
-        <v>10</v>
+        <v>44940.47</v>
       </c>
       <c r="G84" t="n">
-        <v>5.868499999999987</v>
+        <v>5.86733333333332</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2578,12 +2832,15 @@
         <v>5.9</v>
       </c>
       <c r="F85" t="n">
-        <v>129531.0169</v>
+        <v>10</v>
       </c>
       <c r="G85" t="n">
-        <v>5.868666666666654</v>
+        <v>5.868499999999987</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2595,21 +2852,24 @@
         <v>5.9</v>
       </c>
       <c r="C86" t="n">
-        <v>5.97</v>
+        <v>5.9</v>
       </c>
       <c r="D86" t="n">
-        <v>5.97</v>
+        <v>5.9</v>
       </c>
       <c r="E86" t="n">
         <v>5.9</v>
       </c>
       <c r="F86" t="n">
-        <v>22574.0443</v>
+        <v>129531.0169</v>
       </c>
       <c r="G86" t="n">
-        <v>5.870833333333321</v>
+        <v>5.868666666666654</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2618,24 +2878,27 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="C87" t="n">
         <v>5.97</v>
       </c>
-      <c r="C87" t="n">
-        <v>6.02</v>
-      </c>
       <c r="D87" t="n">
-        <v>6.02</v>
+        <v>5.97</v>
       </c>
       <c r="E87" t="n">
-        <v>5.97</v>
+        <v>5.9</v>
       </c>
       <c r="F87" t="n">
-        <v>147107.1111</v>
+        <v>22574.0443</v>
       </c>
       <c r="G87" t="n">
-        <v>5.874333333333321</v>
+        <v>5.870833333333321</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2644,24 +2907,27 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>6.03</v>
+        <v>5.97</v>
       </c>
       <c r="C88" t="n">
-        <v>6.04</v>
+        <v>6.02</v>
       </c>
       <c r="D88" t="n">
-        <v>6.04</v>
+        <v>6.02</v>
       </c>
       <c r="E88" t="n">
-        <v>6.03</v>
+        <v>5.97</v>
       </c>
       <c r="F88" t="n">
-        <v>108524.763</v>
+        <v>147107.1111</v>
       </c>
       <c r="G88" t="n">
-        <v>5.878333333333321</v>
+        <v>5.874333333333321</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2670,10 +2936,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="C89" t="n">
         <v>6.04</v>
-      </c>
-      <c r="C89" t="n">
-        <v>6.03</v>
       </c>
       <c r="D89" t="n">
         <v>6.04</v>
@@ -2682,12 +2948,15 @@
         <v>6.03</v>
       </c>
       <c r="F89" t="n">
-        <v>134758.6781</v>
+        <v>108524.763</v>
       </c>
       <c r="G89" t="n">
-        <v>5.882166666666653</v>
+        <v>5.878333333333321</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2696,24 +2965,27 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>6.02</v>
+        <v>6.04</v>
       </c>
       <c r="C90" t="n">
-        <v>6.02</v>
+        <v>6.03</v>
       </c>
       <c r="D90" t="n">
-        <v>6.02</v>
+        <v>6.04</v>
       </c>
       <c r="E90" t="n">
-        <v>6.02</v>
+        <v>6.03</v>
       </c>
       <c r="F90" t="n">
-        <v>15780.7308</v>
+        <v>134758.6781</v>
       </c>
       <c r="G90" t="n">
-        <v>5.884166666666654</v>
+        <v>5.882166666666653</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2722,25 +2994,28 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>6.04</v>
+        <v>6.02</v>
       </c>
       <c r="C91" t="n">
-        <v>6.04</v>
+        <v>6.02</v>
       </c>
       <c r="D91" t="n">
-        <v>6.04</v>
+        <v>6.02</v>
       </c>
       <c r="E91" t="n">
-        <v>6.04</v>
+        <v>6.02</v>
       </c>
       <c r="F91" t="n">
-        <v>10</v>
+        <v>15780.7308</v>
       </c>
       <c r="G91" t="n">
-        <v>5.886499999999987</v>
+        <v>5.884166666666654</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -2763,10 +3038,13 @@
         <v>10</v>
       </c>
       <c r="G92" t="n">
-        <v>5.888833333333322</v>
+        <v>5.886499999999987</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -2786,13 +3064,16 @@
         <v>6.04</v>
       </c>
       <c r="F93" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G93" t="n">
-        <v>5.891166666666655</v>
+        <v>5.888833333333322</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -2812,13 +3093,16 @@
         <v>6.04</v>
       </c>
       <c r="F94" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="G94" t="n">
-        <v>5.89349999999999</v>
+        <v>5.891166666666655</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -2838,13 +3122,16 @@
         <v>6.04</v>
       </c>
       <c r="F95" t="n">
-        <v>7864.2384</v>
+        <v>100</v>
       </c>
       <c r="G95" t="n">
-        <v>5.895833333333324</v>
+        <v>5.89349999999999</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -2852,25 +3139,28 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>6.03</v>
+        <v>6.04</v>
       </c>
       <c r="C96" t="n">
-        <v>6.03</v>
+        <v>6.04</v>
       </c>
       <c r="D96" t="n">
-        <v>6.03</v>
+        <v>6.04</v>
       </c>
       <c r="E96" t="n">
-        <v>6.03</v>
+        <v>6.04</v>
       </c>
       <c r="F96" t="n">
-        <v>1969.32</v>
+        <v>7864.2384</v>
       </c>
       <c r="G96" t="n">
-        <v>5.897999999999991</v>
+        <v>5.895833333333324</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -2878,25 +3168,28 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>5.98</v>
+        <v>6.03</v>
       </c>
       <c r="C97" t="n">
-        <v>6.02</v>
+        <v>6.03</v>
       </c>
       <c r="D97" t="n">
-        <v>6.02</v>
+        <v>6.03</v>
       </c>
       <c r="E97" t="n">
-        <v>5.98</v>
+        <v>6.03</v>
       </c>
       <c r="F97" t="n">
-        <v>121</v>
+        <v>1969.32</v>
       </c>
       <c r="G97" t="n">
-        <v>5.900999999999991</v>
+        <v>5.897999999999991</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -2907,21 +3200,24 @@
         <v>5.98</v>
       </c>
       <c r="C98" t="n">
-        <v>5.98</v>
+        <v>6.02</v>
       </c>
       <c r="D98" t="n">
-        <v>5.98</v>
+        <v>6.02</v>
       </c>
       <c r="E98" t="n">
         <v>5.98</v>
       </c>
       <c r="F98" t="n">
-        <v>1666.6851</v>
+        <v>121</v>
       </c>
       <c r="G98" t="n">
-        <v>5.902333333333325</v>
+        <v>5.900999999999991</v>
       </c>
       <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2930,7 +3226,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>5.97</v>
+        <v>5.98</v>
       </c>
       <c r="C99" t="n">
         <v>5.98</v>
@@ -2939,15 +3235,18 @@
         <v>5.98</v>
       </c>
       <c r="E99" t="n">
-        <v>5.97</v>
+        <v>5.98</v>
       </c>
       <c r="F99" t="n">
-        <v>1489.3394</v>
+        <v>1666.6851</v>
       </c>
       <c r="G99" t="n">
-        <v>5.903999999999992</v>
+        <v>5.902333333333325</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2956,7 +3255,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>5.98</v>
+        <v>5.97</v>
       </c>
       <c r="C100" t="n">
         <v>5.98</v>
@@ -2965,15 +3264,18 @@
         <v>5.98</v>
       </c>
       <c r="E100" t="n">
-        <v>5.98</v>
+        <v>5.97</v>
       </c>
       <c r="F100" t="n">
-        <v>100</v>
+        <v>1489.3394</v>
       </c>
       <c r="G100" t="n">
-        <v>5.905666666666659</v>
+        <v>5.903999999999992</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2997,9 +3299,12 @@
         <v>100</v>
       </c>
       <c r="G101" t="n">
-        <v>5.907999999999992</v>
+        <v>5.905666666666659</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3020,12 +3325,15 @@
         <v>5.98</v>
       </c>
       <c r="F102" t="n">
-        <v>33408.6898</v>
+        <v>100</v>
       </c>
       <c r="G102" t="n">
-        <v>5.910833333333327</v>
+        <v>5.907999999999992</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3034,24 +3342,27 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>6.02</v>
+        <v>5.98</v>
       </c>
       <c r="C103" t="n">
-        <v>6.02</v>
+        <v>5.98</v>
       </c>
       <c r="D103" t="n">
-        <v>6.02</v>
+        <v>5.98</v>
       </c>
       <c r="E103" t="n">
-        <v>6.02</v>
+        <v>5.98</v>
       </c>
       <c r="F103" t="n">
-        <v>110</v>
+        <v>33408.6898</v>
       </c>
       <c r="G103" t="n">
-        <v>5.913499999999993</v>
+        <v>5.910833333333327</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3072,12 +3383,15 @@
         <v>6.02</v>
       </c>
       <c r="F104" t="n">
-        <v>4095.681</v>
+        <v>110</v>
       </c>
       <c r="G104" t="n">
-        <v>5.916166666666658</v>
+        <v>5.913499999999993</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3098,12 +3412,15 @@
         <v>6.02</v>
       </c>
       <c r="F105" t="n">
-        <v>3857.0301</v>
+        <v>4095.681</v>
       </c>
       <c r="G105" t="n">
-        <v>5.918499999999992</v>
+        <v>5.916166666666658</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3112,24 +3429,27 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>6.03</v>
+        <v>6.02</v>
       </c>
       <c r="C106" t="n">
-        <v>6.03</v>
+        <v>6.02</v>
       </c>
       <c r="D106" t="n">
-        <v>6.03</v>
+        <v>6.02</v>
       </c>
       <c r="E106" t="n">
-        <v>6.03</v>
+        <v>6.02</v>
       </c>
       <c r="F106" t="n">
-        <v>10</v>
+        <v>3857.0301</v>
       </c>
       <c r="G106" t="n">
-        <v>5.920999999999991</v>
+        <v>5.918499999999992</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3138,7 +3458,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>6</v>
+        <v>6.03</v>
       </c>
       <c r="C107" t="n">
         <v>6.03</v>
@@ -3147,15 +3467,18 @@
         <v>6.03</v>
       </c>
       <c r="E107" t="n">
-        <v>6</v>
+        <v>6.03</v>
       </c>
       <c r="F107" t="n">
-        <v>94747.08289999999</v>
+        <v>10</v>
       </c>
       <c r="G107" t="n">
-        <v>5.923499999999991</v>
+        <v>5.920999999999991</v>
       </c>
       <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3164,24 +3487,27 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>5.95</v>
+        <v>6</v>
       </c>
       <c r="C108" t="n">
-        <v>5.92</v>
+        <v>6.03</v>
       </c>
       <c r="D108" t="n">
-        <v>5.95</v>
+        <v>6.03</v>
       </c>
       <c r="E108" t="n">
-        <v>5.92</v>
+        <v>6</v>
       </c>
       <c r="F108" t="n">
-        <v>114362.8183</v>
+        <v>94747.08289999999</v>
       </c>
       <c r="G108" t="n">
-        <v>5.924166666666658</v>
+        <v>5.923499999999991</v>
       </c>
       <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3190,24 +3516,27 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>5.91</v>
+        <v>5.95</v>
       </c>
       <c r="C109" t="n">
-        <v>6</v>
+        <v>5.92</v>
       </c>
       <c r="D109" t="n">
-        <v>6</v>
+        <v>5.95</v>
       </c>
       <c r="E109" t="n">
-        <v>5.85</v>
+        <v>5.92</v>
       </c>
       <c r="F109" t="n">
-        <v>14854.396</v>
+        <v>114362.8183</v>
       </c>
       <c r="G109" t="n">
-        <v>5.926166666666658</v>
+        <v>5.924166666666658</v>
       </c>
       <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3216,7 +3545,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>6</v>
+        <v>5.91</v>
       </c>
       <c r="C110" t="n">
         <v>6</v>
@@ -3225,15 +3554,18 @@
         <v>6</v>
       </c>
       <c r="E110" t="n">
-        <v>6</v>
+        <v>5.85</v>
       </c>
       <c r="F110" t="n">
-        <v>400</v>
+        <v>14854.396</v>
       </c>
       <c r="G110" t="n">
-        <v>5.928166666666658</v>
+        <v>5.926166666666658</v>
       </c>
       <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3242,24 +3574,27 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>6.01</v>
+        <v>6</v>
       </c>
       <c r="C111" t="n">
-        <v>5.97</v>
+        <v>6</v>
       </c>
       <c r="D111" t="n">
-        <v>6.01</v>
+        <v>6</v>
       </c>
       <c r="E111" t="n">
-        <v>5.96</v>
+        <v>6</v>
       </c>
       <c r="F111" t="n">
-        <v>85416.2458</v>
+        <v>400</v>
       </c>
       <c r="G111" t="n">
-        <v>5.929666666666659</v>
+        <v>5.928166666666658</v>
       </c>
       <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3268,24 +3603,27 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>5.97</v>
+        <v>6.01</v>
       </c>
       <c r="C112" t="n">
         <v>5.97</v>
       </c>
       <c r="D112" t="n">
-        <v>5.97</v>
+        <v>6.01</v>
       </c>
       <c r="E112" t="n">
-        <v>5.97</v>
+        <v>5.96</v>
       </c>
       <c r="F112" t="n">
-        <v>69411</v>
+        <v>85416.2458</v>
       </c>
       <c r="G112" t="n">
-        <v>5.931166666666659</v>
+        <v>5.929666666666659</v>
       </c>
       <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3294,24 +3632,27 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>5.96</v>
+        <v>5.97</v>
       </c>
       <c r="C113" t="n">
-        <v>6.01</v>
+        <v>5.97</v>
       </c>
       <c r="D113" t="n">
-        <v>6.01</v>
+        <v>5.97</v>
       </c>
       <c r="E113" t="n">
-        <v>5.96</v>
+        <v>5.97</v>
       </c>
       <c r="F113" t="n">
-        <v>7303.3026</v>
+        <v>69411</v>
       </c>
       <c r="G113" t="n">
-        <v>5.933999999999993</v>
+        <v>5.931166666666659</v>
       </c>
       <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3320,24 +3661,27 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>6.02</v>
+        <v>5.96</v>
       </c>
       <c r="C114" t="n">
-        <v>6.02</v>
+        <v>6.01</v>
       </c>
       <c r="D114" t="n">
-        <v>6.02</v>
+        <v>6.01</v>
       </c>
       <c r="E114" t="n">
-        <v>6.02</v>
+        <v>5.96</v>
       </c>
       <c r="F114" t="n">
-        <v>10</v>
+        <v>7303.3026</v>
       </c>
       <c r="G114" t="n">
-        <v>5.935999999999993</v>
+        <v>5.933999999999993</v>
       </c>
       <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3361,9 +3705,12 @@
         <v>10</v>
       </c>
       <c r="G115" t="n">
-        <v>5.937999999999993</v>
+        <v>5.935999999999993</v>
       </c>
       <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3387,9 +3734,12 @@
         <v>10</v>
       </c>
       <c r="G116" t="n">
-        <v>5.939999999999993</v>
+        <v>5.937999999999993</v>
       </c>
       <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3398,24 +3748,27 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>5.95</v>
+        <v>6.02</v>
       </c>
       <c r="C117" t="n">
-        <v>5.94</v>
+        <v>6.02</v>
       </c>
       <c r="D117" t="n">
-        <v>5.95</v>
+        <v>6.02</v>
       </c>
       <c r="E117" t="n">
-        <v>5.94</v>
+        <v>6.02</v>
       </c>
       <c r="F117" t="n">
-        <v>190080.7979</v>
+        <v>10</v>
       </c>
       <c r="G117" t="n">
-        <v>5.94066666666666</v>
+        <v>5.939999999999993</v>
       </c>
       <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3424,24 +3777,27 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>5.88</v>
+        <v>5.95</v>
       </c>
       <c r="C118" t="n">
         <v>5.94</v>
       </c>
       <c r="D118" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="E118" t="n">
         <v>5.94</v>
       </c>
-      <c r="E118" t="n">
-        <v>5.88</v>
-      </c>
       <c r="F118" t="n">
-        <v>41.9625</v>
+        <v>190080.7979</v>
       </c>
       <c r="G118" t="n">
-        <v>5.941833333333326</v>
+        <v>5.94066666666666</v>
       </c>
       <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3450,7 +3806,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>5.94</v>
+        <v>5.88</v>
       </c>
       <c r="C119" t="n">
         <v>5.94</v>
@@ -3459,15 +3815,18 @@
         <v>5.94</v>
       </c>
       <c r="E119" t="n">
-        <v>5.94</v>
+        <v>5.88</v>
       </c>
       <c r="F119" t="n">
-        <v>100</v>
+        <v>41.9625</v>
       </c>
       <c r="G119" t="n">
-        <v>5.943499999999994</v>
+        <v>5.941833333333326</v>
       </c>
       <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3491,9 +3850,12 @@
         <v>100</v>
       </c>
       <c r="G120" t="n">
-        <v>5.945333333333327</v>
+        <v>5.943499999999994</v>
       </c>
       <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3514,12 +3876,15 @@
         <v>5.94</v>
       </c>
       <c r="F121" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G121" t="n">
-        <v>5.946999999999994</v>
+        <v>5.945333333333327</v>
       </c>
       <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3531,21 +3896,24 @@
         <v>5.94</v>
       </c>
       <c r="C122" t="n">
-        <v>5.85</v>
+        <v>5.94</v>
       </c>
       <c r="D122" t="n">
         <v>5.94</v>
       </c>
       <c r="E122" t="n">
-        <v>5.85</v>
+        <v>5.94</v>
       </c>
       <c r="F122" t="n">
-        <v>111323.6199</v>
+        <v>10</v>
       </c>
       <c r="G122" t="n">
-        <v>5.946166666666661</v>
+        <v>5.946999999999994</v>
       </c>
       <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3554,24 +3922,27 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>5.86</v>
+        <v>5.94</v>
       </c>
       <c r="C123" t="n">
         <v>5.85</v>
       </c>
       <c r="D123" t="n">
-        <v>5.86</v>
+        <v>5.94</v>
       </c>
       <c r="E123" t="n">
         <v>5.85</v>
       </c>
       <c r="F123" t="n">
-        <v>95645.3253</v>
+        <v>111323.6199</v>
       </c>
       <c r="G123" t="n">
-        <v>5.945333333333329</v>
+        <v>5.946166666666661</v>
       </c>
       <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3580,24 +3951,27 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>5.93</v>
+        <v>5.86</v>
       </c>
       <c r="C124" t="n">
-        <v>5.93</v>
+        <v>5.85</v>
       </c>
       <c r="D124" t="n">
-        <v>5.93</v>
+        <v>5.86</v>
       </c>
       <c r="E124" t="n">
-        <v>5.93</v>
+        <v>5.85</v>
       </c>
       <c r="F124" t="n">
-        <v>18</v>
+        <v>95645.3253</v>
       </c>
       <c r="G124" t="n">
-        <v>5.94683333333333</v>
+        <v>5.945333333333329</v>
       </c>
       <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3606,24 +3980,27 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>5.86</v>
+        <v>5.93</v>
       </c>
       <c r="C125" t="n">
-        <v>5.84</v>
+        <v>5.93</v>
       </c>
       <c r="D125" t="n">
-        <v>5.86</v>
+        <v>5.93</v>
       </c>
       <c r="E125" t="n">
-        <v>5.84</v>
+        <v>5.93</v>
       </c>
       <c r="F125" t="n">
-        <v>58818.791</v>
+        <v>18</v>
       </c>
       <c r="G125" t="n">
-        <v>5.945999999999996</v>
+        <v>5.94683333333333</v>
       </c>
       <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3632,24 +4009,27 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>5.83</v>
+        <v>5.86</v>
       </c>
       <c r="C126" t="n">
-        <v>5.83</v>
+        <v>5.84</v>
       </c>
       <c r="D126" t="n">
-        <v>5.83</v>
+        <v>5.86</v>
       </c>
       <c r="E126" t="n">
-        <v>5.83</v>
+        <v>5.84</v>
       </c>
       <c r="F126" t="n">
-        <v>133595.061</v>
+        <v>58818.791</v>
       </c>
       <c r="G126" t="n">
-        <v>5.945166666666663</v>
+        <v>5.945999999999996</v>
       </c>
       <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3658,24 +4038,27 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>5.91</v>
+        <v>5.83</v>
       </c>
       <c r="C127" t="n">
-        <v>5.91</v>
+        <v>5.83</v>
       </c>
       <c r="D127" t="n">
-        <v>5.91</v>
+        <v>5.83</v>
       </c>
       <c r="E127" t="n">
-        <v>5.91</v>
+        <v>5.83</v>
       </c>
       <c r="F127" t="n">
-        <v>10</v>
+        <v>133595.061</v>
       </c>
       <c r="G127" t="n">
-        <v>5.945666666666663</v>
+        <v>5.945166666666663</v>
       </c>
       <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3687,21 +4070,24 @@
         <v>5.91</v>
       </c>
       <c r="C128" t="n">
-        <v>5.85</v>
+        <v>5.91</v>
       </c>
       <c r="D128" t="n">
         <v>5.91</v>
       </c>
       <c r="E128" t="n">
-        <v>5.85</v>
+        <v>5.91</v>
       </c>
       <c r="F128" t="n">
-        <v>36628.168</v>
+        <v>10</v>
       </c>
       <c r="G128" t="n">
-        <v>5.945166666666664</v>
+        <v>5.945666666666663</v>
       </c>
       <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3713,21 +4099,24 @@
         <v>5.91</v>
       </c>
       <c r="C129" t="n">
-        <v>5.91</v>
+        <v>5.85</v>
       </c>
       <c r="D129" t="n">
         <v>5.91</v>
       </c>
       <c r="E129" t="n">
-        <v>5.91</v>
+        <v>5.85</v>
       </c>
       <c r="F129" t="n">
-        <v>10</v>
+        <v>36628.168</v>
       </c>
       <c r="G129" t="n">
-        <v>5.945666666666664</v>
+        <v>5.945166666666664</v>
       </c>
       <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3751,9 +4140,12 @@
         <v>10</v>
       </c>
       <c r="G130" t="n">
-        <v>5.946166666666665</v>
+        <v>5.945666666666664</v>
       </c>
       <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3777,9 +4169,12 @@
         <v>10</v>
       </c>
       <c r="G131" t="n">
-        <v>5.946666666666665</v>
+        <v>5.946166666666665</v>
       </c>
       <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3803,9 +4198,12 @@
         <v>10</v>
       </c>
       <c r="G132" t="n">
-        <v>5.947999999999999</v>
+        <v>5.946666666666665</v>
       </c>
       <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3829,9 +4227,12 @@
         <v>10</v>
       </c>
       <c r="G133" t="n">
-        <v>5.949333333333333</v>
+        <v>5.947999999999999</v>
       </c>
       <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3855,9 +4256,12 @@
         <v>10</v>
       </c>
       <c r="G134" t="n">
-        <v>5.950666666666667</v>
+        <v>5.949333333333333</v>
       </c>
       <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3881,9 +4285,12 @@
         <v>10</v>
       </c>
       <c r="G135" t="n">
-        <v>5.952000000000001</v>
+        <v>5.950666666666667</v>
       </c>
       <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3907,9 +4314,12 @@
         <v>10</v>
       </c>
       <c r="G136" t="n">
-        <v>5.953333333333335</v>
+        <v>5.952000000000001</v>
       </c>
       <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3930,12 +4340,15 @@
         <v>5.91</v>
       </c>
       <c r="F137" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G137" t="n">
-        <v>5.953833333333336</v>
+        <v>5.953333333333335</v>
       </c>
       <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3956,12 +4369,15 @@
         <v>5.91</v>
       </c>
       <c r="F138" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G138" t="n">
-        <v>5.954333333333336</v>
+        <v>5.953833333333336</v>
       </c>
       <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3982,12 +4398,15 @@
         <v>5.91</v>
       </c>
       <c r="F139" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G139" t="n">
-        <v>5.95566666666667</v>
+        <v>5.954333333333336</v>
       </c>
       <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3996,24 +4415,27 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>5.85</v>
+        <v>5.91</v>
       </c>
       <c r="C140" t="n">
-        <v>5.85</v>
+        <v>5.91</v>
       </c>
       <c r="D140" t="n">
-        <v>5.85</v>
+        <v>5.91</v>
       </c>
       <c r="E140" t="n">
-        <v>5.85</v>
+        <v>5.91</v>
       </c>
       <c r="F140" t="n">
-        <v>20652.1657</v>
+        <v>100</v>
       </c>
       <c r="G140" t="n">
-        <v>5.956000000000004</v>
+        <v>5.95566666666667</v>
       </c>
       <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4022,24 +4444,27 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>5.91</v>
+        <v>5.85</v>
       </c>
       <c r="C141" t="n">
-        <v>5.91</v>
+        <v>5.85</v>
       </c>
       <c r="D141" t="n">
-        <v>5.91</v>
+        <v>5.85</v>
       </c>
       <c r="E141" t="n">
-        <v>5.91</v>
+        <v>5.85</v>
       </c>
       <c r="F141" t="n">
-        <v>20</v>
+        <v>20652.1657</v>
       </c>
       <c r="G141" t="n">
-        <v>5.956500000000005</v>
+        <v>5.956000000000004</v>
       </c>
       <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4060,12 +4485,15 @@
         <v>5.91</v>
       </c>
       <c r="F142" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G142" t="n">
-        <v>5.957000000000005</v>
+        <v>5.956500000000005</v>
       </c>
       <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4086,12 +4514,15 @@
         <v>5.91</v>
       </c>
       <c r="F143" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G143" t="n">
-        <v>5.957166666666672</v>
+        <v>5.957000000000005</v>
       </c>
       <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4115,9 +4546,12 @@
         <v>100</v>
       </c>
       <c r="G144" t="n">
-        <v>5.95733333333334</v>
+        <v>5.957166666666672</v>
       </c>
       <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4138,12 +4572,15 @@
         <v>5.91</v>
       </c>
       <c r="F145" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G145" t="n">
-        <v>5.957500000000008</v>
+        <v>5.95733333333334</v>
       </c>
       <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4167,9 +4604,12 @@
         <v>10</v>
       </c>
       <c r="G146" t="n">
-        <v>5.956500000000007</v>
+        <v>5.957500000000008</v>
       </c>
       <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4193,9 +4633,12 @@
         <v>10</v>
       </c>
       <c r="G147" t="n">
-        <v>5.954666666666674</v>
+        <v>5.956500000000007</v>
       </c>
       <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4204,24 +4647,27 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>5.85</v>
+        <v>5.91</v>
       </c>
       <c r="C148" t="n">
-        <v>5.85</v>
+        <v>5.91</v>
       </c>
       <c r="D148" t="n">
-        <v>5.85</v>
+        <v>5.91</v>
       </c>
       <c r="E148" t="n">
-        <v>5.84</v>
+        <v>5.91</v>
       </c>
       <c r="F148" t="n">
-        <v>66768.4679</v>
+        <v>10</v>
       </c>
       <c r="G148" t="n">
-        <v>5.951500000000008</v>
+        <v>5.954666666666674</v>
       </c>
       <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4230,24 +4676,27 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>5.91</v>
+        <v>5.85</v>
       </c>
       <c r="C149" t="n">
-        <v>5.91</v>
+        <v>5.85</v>
       </c>
       <c r="D149" t="n">
-        <v>5.91</v>
+        <v>5.85</v>
       </c>
       <c r="E149" t="n">
-        <v>5.91</v>
+        <v>5.84</v>
       </c>
       <c r="F149" t="n">
-        <v>10</v>
+        <v>66768.4679</v>
       </c>
       <c r="G149" t="n">
-        <v>5.949500000000009</v>
+        <v>5.951500000000008</v>
       </c>
       <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4256,24 +4705,27 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>5.83</v>
+        <v>5.91</v>
       </c>
       <c r="C150" t="n">
-        <v>5.83</v>
+        <v>5.91</v>
       </c>
       <c r="D150" t="n">
-        <v>5.83</v>
+        <v>5.91</v>
       </c>
       <c r="E150" t="n">
-        <v>5.83</v>
+        <v>5.91</v>
       </c>
       <c r="F150" t="n">
-        <v>32652.5768</v>
+        <v>10</v>
       </c>
       <c r="G150" t="n">
-        <v>5.946333333333342</v>
+        <v>5.949500000000009</v>
       </c>
       <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4294,12 +4746,15 @@
         <v>5.83</v>
       </c>
       <c r="F151" t="n">
-        <v>102169</v>
+        <v>32652.5768</v>
       </c>
       <c r="G151" t="n">
-        <v>5.942833333333342</v>
+        <v>5.946333333333342</v>
       </c>
       <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4320,12 +4775,15 @@
         <v>5.83</v>
       </c>
       <c r="F152" t="n">
-        <v>70401</v>
+        <v>102169</v>
       </c>
       <c r="G152" t="n">
-        <v>5.939333333333341</v>
+        <v>5.942833333333342</v>
       </c>
       <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4346,12 +4804,15 @@
         <v>5.83</v>
       </c>
       <c r="F153" t="n">
-        <v>47573</v>
+        <v>70401</v>
       </c>
       <c r="G153" t="n">
-        <v>5.93583333333334</v>
+        <v>5.939333333333341</v>
       </c>
       <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4372,12 +4833,15 @@
         <v>5.83</v>
       </c>
       <c r="F154" t="n">
-        <v>43460</v>
+        <v>47573</v>
       </c>
       <c r="G154" t="n">
-        <v>5.93233333333334</v>
+        <v>5.93583333333334</v>
       </c>
       <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4398,12 +4862,15 @@
         <v>5.83</v>
       </c>
       <c r="F155" t="n">
-        <v>73622</v>
+        <v>43460</v>
       </c>
       <c r="G155" t="n">
-        <v>5.92883333333334</v>
+        <v>5.93233333333334</v>
       </c>
       <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4424,12 +4891,15 @@
         <v>5.83</v>
       </c>
       <c r="F156" t="n">
-        <v>58756</v>
+        <v>73622</v>
       </c>
       <c r="G156" t="n">
-        <v>5.925500000000006</v>
+        <v>5.92883333333334</v>
       </c>
       <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4450,12 +4920,15 @@
         <v>5.83</v>
       </c>
       <c r="F157" t="n">
-        <v>41923.7761</v>
+        <v>58756</v>
       </c>
       <c r="G157" t="n">
-        <v>5.92233333333334</v>
+        <v>5.925500000000006</v>
       </c>
       <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4476,12 +4949,15 @@
         <v>5.83</v>
       </c>
       <c r="F158" t="n">
-        <v>123256.1582</v>
+        <v>41923.7761</v>
       </c>
       <c r="G158" t="n">
-        <v>5.919833333333339</v>
+        <v>5.92233333333334</v>
       </c>
       <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4502,12 +4978,15 @@
         <v>5.83</v>
       </c>
       <c r="F159" t="n">
-        <v>46143</v>
+        <v>123256.1582</v>
       </c>
       <c r="G159" t="n">
-        <v>5.917333333333338</v>
+        <v>5.919833333333339</v>
       </c>
       <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4519,21 +4998,24 @@
         <v>5.83</v>
       </c>
       <c r="C160" t="n">
-        <v>5.91</v>
+        <v>5.83</v>
       </c>
       <c r="D160" t="n">
-        <v>5.91</v>
+        <v>5.83</v>
       </c>
       <c r="E160" t="n">
         <v>5.83</v>
       </c>
       <c r="F160" t="n">
-        <v>35193</v>
+        <v>46143</v>
       </c>
       <c r="G160" t="n">
-        <v>5.916166666666672</v>
+        <v>5.917333333333338</v>
       </c>
       <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4542,24 +5024,27 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>5.87</v>
+        <v>5.83</v>
       </c>
       <c r="C161" t="n">
-        <v>5.87</v>
+        <v>5.91</v>
       </c>
       <c r="D161" t="n">
-        <v>5.87</v>
+        <v>5.91</v>
       </c>
       <c r="E161" t="n">
-        <v>5.87</v>
+        <v>5.83</v>
       </c>
       <c r="F161" t="n">
-        <v>42.2487</v>
+        <v>35193</v>
       </c>
       <c r="G161" t="n">
-        <v>5.914333333333338</v>
+        <v>5.916166666666672</v>
       </c>
       <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4580,12 +5065,15 @@
         <v>5.87</v>
       </c>
       <c r="F162" t="n">
-        <v>10</v>
+        <v>42.2487</v>
       </c>
       <c r="G162" t="n">
-        <v>5.912500000000005</v>
+        <v>5.914333333333338</v>
       </c>
       <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4609,9 +5097,12 @@
         <v>10</v>
       </c>
       <c r="G163" t="n">
-        <v>5.910000000000005</v>
+        <v>5.912500000000005</v>
       </c>
       <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4620,24 +5111,27 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>5.83</v>
+        <v>5.87</v>
       </c>
       <c r="C164" t="n">
-        <v>5.83</v>
+        <v>5.87</v>
       </c>
       <c r="D164" t="n">
-        <v>5.83</v>
+        <v>5.87</v>
       </c>
       <c r="E164" t="n">
-        <v>5.83</v>
+        <v>5.87</v>
       </c>
       <c r="F164" t="n">
-        <v>138.1486</v>
+        <v>10</v>
       </c>
       <c r="G164" t="n">
-        <v>5.906833333333338</v>
+        <v>5.910000000000005</v>
       </c>
       <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4658,12 +5152,15 @@
         <v>5.83</v>
       </c>
       <c r="F165" t="n">
-        <v>62.4513</v>
+        <v>138.1486</v>
       </c>
       <c r="G165" t="n">
-        <v>5.903666666666672</v>
+        <v>5.906833333333338</v>
       </c>
       <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4672,24 +5169,27 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>5.84</v>
+        <v>5.83</v>
       </c>
       <c r="C166" t="n">
-        <v>5.84</v>
+        <v>5.83</v>
       </c>
       <c r="D166" t="n">
-        <v>5.84</v>
+        <v>5.83</v>
       </c>
       <c r="E166" t="n">
-        <v>5.84</v>
+        <v>5.83</v>
       </c>
       <c r="F166" t="n">
-        <v>10877.226</v>
+        <v>62.4513</v>
       </c>
       <c r="G166" t="n">
-        <v>5.900500000000005</v>
+        <v>5.903666666666672</v>
       </c>
       <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4698,24 +5198,27 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>5.83</v>
+        <v>5.84</v>
       </c>
       <c r="C167" t="n">
-        <v>5.83</v>
+        <v>5.84</v>
       </c>
       <c r="D167" t="n">
-        <v>5.83</v>
+        <v>5.84</v>
       </c>
       <c r="E167" t="n">
-        <v>5.83</v>
+        <v>5.84</v>
       </c>
       <c r="F167" t="n">
-        <v>2845.8334</v>
+        <v>10877.226</v>
       </c>
       <c r="G167" t="n">
-        <v>5.897166666666672</v>
+        <v>5.900500000000005</v>
       </c>
       <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4736,12 +5239,15 @@
         <v>5.83</v>
       </c>
       <c r="F168" t="n">
-        <v>20000</v>
+        <v>2845.8334</v>
       </c>
       <c r="G168" t="n">
-        <v>5.895666666666671</v>
+        <v>5.897166666666672</v>
       </c>
       <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4762,12 +5268,15 @@
         <v>5.83</v>
       </c>
       <c r="F169" t="n">
-        <v>18268.2539</v>
+        <v>20000</v>
       </c>
       <c r="G169" t="n">
-        <v>5.892833333333338</v>
+        <v>5.895666666666671</v>
       </c>
       <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4788,12 +5297,15 @@
         <v>5.83</v>
       </c>
       <c r="F170" t="n">
-        <v>61440.954</v>
+        <v>18268.2539</v>
       </c>
       <c r="G170" t="n">
-        <v>5.890000000000004</v>
+        <v>5.892833333333338</v>
       </c>
       <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4814,12 +5326,15 @@
         <v>5.83</v>
       </c>
       <c r="F171" t="n">
-        <v>60122.3039</v>
+        <v>61440.954</v>
       </c>
       <c r="G171" t="n">
-        <v>5.887666666666671</v>
+        <v>5.890000000000004</v>
       </c>
       <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4840,12 +5355,15 @@
         <v>5.83</v>
       </c>
       <c r="F172" t="n">
-        <v>30647.4628</v>
+        <v>60122.3039</v>
       </c>
       <c r="G172" t="n">
-        <v>5.885333333333336</v>
+        <v>5.887666666666671</v>
       </c>
       <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4854,24 +5372,27 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>5.86</v>
+        <v>5.83</v>
       </c>
       <c r="C173" t="n">
-        <v>5.86</v>
+        <v>5.83</v>
       </c>
       <c r="D173" t="n">
-        <v>5.86</v>
+        <v>5.83</v>
       </c>
       <c r="E173" t="n">
-        <v>5.86</v>
+        <v>5.83</v>
       </c>
       <c r="F173" t="n">
-        <v>10</v>
+        <v>30647.4628</v>
       </c>
       <c r="G173" t="n">
-        <v>5.882833333333337</v>
+        <v>5.885333333333336</v>
       </c>
       <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4880,24 +5401,27 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>5.83</v>
+        <v>5.86</v>
       </c>
       <c r="C174" t="n">
-        <v>5.83</v>
+        <v>5.86</v>
       </c>
       <c r="D174" t="n">
-        <v>5.83</v>
+        <v>5.86</v>
       </c>
       <c r="E174" t="n">
-        <v>5.83</v>
+        <v>5.86</v>
       </c>
       <c r="F174" t="n">
-        <v>12582.2333</v>
+        <v>10</v>
       </c>
       <c r="G174" t="n">
-        <v>5.87966666666667</v>
+        <v>5.882833333333337</v>
       </c>
       <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4909,21 +5433,24 @@
         <v>5.83</v>
       </c>
       <c r="C175" t="n">
-        <v>5.86</v>
+        <v>5.83</v>
       </c>
       <c r="D175" t="n">
-        <v>5.86</v>
+        <v>5.83</v>
       </c>
       <c r="E175" t="n">
         <v>5.83</v>
       </c>
       <c r="F175" t="n">
-        <v>16503.5561</v>
+        <v>12582.2333</v>
       </c>
       <c r="G175" t="n">
-        <v>5.877000000000004</v>
+        <v>5.87966666666667</v>
       </c>
       <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4932,7 +5459,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>5.86</v>
+        <v>5.83</v>
       </c>
       <c r="C176" t="n">
         <v>5.86</v>
@@ -4941,15 +5468,18 @@
         <v>5.86</v>
       </c>
       <c r="E176" t="n">
-        <v>5.86</v>
+        <v>5.83</v>
       </c>
       <c r="F176" t="n">
-        <v>100</v>
+        <v>16503.5561</v>
       </c>
       <c r="G176" t="n">
-        <v>5.874333333333338</v>
+        <v>5.877000000000004</v>
       </c>
       <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4973,9 +5503,12 @@
         <v>100</v>
       </c>
       <c r="G177" t="n">
-        <v>5.873000000000005</v>
+        <v>5.874333333333338</v>
       </c>
       <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4984,24 +5517,27 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>5.84</v>
+        <v>5.86</v>
       </c>
       <c r="C178" t="n">
-        <v>5.84</v>
+        <v>5.86</v>
       </c>
       <c r="D178" t="n">
-        <v>5.84</v>
+        <v>5.86</v>
       </c>
       <c r="E178" t="n">
-        <v>5.84</v>
+        <v>5.86</v>
       </c>
       <c r="F178" t="n">
-        <v>47.8632</v>
+        <v>100</v>
       </c>
       <c r="G178" t="n">
-        <v>5.871333333333338</v>
+        <v>5.873000000000005</v>
       </c>
       <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5022,12 +5558,15 @@
         <v>5.84</v>
       </c>
       <c r="F179" t="n">
-        <v>3305.1369</v>
+        <v>47.8632</v>
       </c>
       <c r="G179" t="n">
-        <v>5.869666666666671</v>
+        <v>5.871333333333338</v>
       </c>
       <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5036,24 +5575,27 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>5.83</v>
+        <v>5.84</v>
       </c>
       <c r="C180" t="n">
-        <v>5.83</v>
+        <v>5.84</v>
       </c>
       <c r="D180" t="n">
-        <v>5.83</v>
+        <v>5.84</v>
       </c>
       <c r="E180" t="n">
-        <v>5.83</v>
+        <v>5.84</v>
       </c>
       <c r="F180" t="n">
-        <v>66018.7767</v>
+        <v>3305.1369</v>
       </c>
       <c r="G180" t="n">
-        <v>5.867833333333337</v>
+        <v>5.869666666666671</v>
       </c>
       <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5062,24 +5604,27 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>5.86</v>
+        <v>5.83</v>
       </c>
       <c r="C181" t="n">
-        <v>5.87</v>
+        <v>5.83</v>
       </c>
       <c r="D181" t="n">
-        <v>5.87</v>
+        <v>5.83</v>
       </c>
       <c r="E181" t="n">
-        <v>5.86</v>
+        <v>5.83</v>
       </c>
       <c r="F181" t="n">
-        <v>42080.5264</v>
+        <v>66018.7767</v>
       </c>
       <c r="G181" t="n">
-        <v>5.866666666666671</v>
+        <v>5.867833333333337</v>
       </c>
       <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5088,7 +5633,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>5.87</v>
+        <v>5.86</v>
       </c>
       <c r="C182" t="n">
         <v>5.87</v>
@@ -5097,15 +5642,18 @@
         <v>5.87</v>
       </c>
       <c r="E182" t="n">
-        <v>5.87</v>
+        <v>5.86</v>
       </c>
       <c r="F182" t="n">
-        <v>81874</v>
+        <v>42080.5264</v>
       </c>
       <c r="G182" t="n">
-        <v>5.867000000000004</v>
+        <v>5.866666666666671</v>
       </c>
       <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5126,12 +5674,15 @@
         <v>5.87</v>
       </c>
       <c r="F183" t="n">
-        <v>28364</v>
+        <v>81874</v>
       </c>
       <c r="G183" t="n">
-        <v>5.867333333333336</v>
+        <v>5.867000000000004</v>
       </c>
       <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5140,24 +5691,27 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>5.88</v>
+        <v>5.87</v>
       </c>
       <c r="C184" t="n">
-        <v>5.88</v>
+        <v>5.87</v>
       </c>
       <c r="D184" t="n">
-        <v>5.88</v>
+        <v>5.87</v>
       </c>
       <c r="E184" t="n">
-        <v>5.88</v>
+        <v>5.87</v>
       </c>
       <c r="F184" t="n">
-        <v>559.7014</v>
+        <v>28364</v>
       </c>
       <c r="G184" t="n">
-        <v>5.866500000000003</v>
+        <v>5.867333333333336</v>
       </c>
       <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5166,24 +5720,27 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>5.9</v>
+        <v>5.88</v>
       </c>
       <c r="C185" t="n">
-        <v>5.93</v>
+        <v>5.88</v>
       </c>
       <c r="D185" t="n">
-        <v>5.93</v>
+        <v>5.88</v>
       </c>
       <c r="E185" t="n">
-        <v>5.9</v>
+        <v>5.88</v>
       </c>
       <c r="F185" t="n">
-        <v>30</v>
+        <v>559.7014</v>
       </c>
       <c r="G185" t="n">
-        <v>5.868000000000004</v>
+        <v>5.866500000000003</v>
       </c>
       <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5192,24 +5749,27 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>5.94</v>
+        <v>5.9</v>
       </c>
       <c r="C186" t="n">
-        <v>5.94</v>
+        <v>5.93</v>
       </c>
       <c r="D186" t="n">
-        <v>5.94</v>
+        <v>5.93</v>
       </c>
       <c r="E186" t="n">
-        <v>5.94</v>
+        <v>5.9</v>
       </c>
       <c r="F186" t="n">
-        <v>74441.70699999999</v>
+        <v>30</v>
       </c>
       <c r="G186" t="n">
-        <v>5.869833333333337</v>
+        <v>5.868000000000004</v>
       </c>
       <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5218,24 +5778,27 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>5.88</v>
+        <v>5.94</v>
       </c>
       <c r="C187" t="n">
-        <v>5.88</v>
+        <v>5.94</v>
       </c>
       <c r="D187" t="n">
-        <v>5.88</v>
+        <v>5.94</v>
       </c>
       <c r="E187" t="n">
-        <v>5.88</v>
+        <v>5.94</v>
       </c>
       <c r="F187" t="n">
-        <v>25469</v>
+        <v>74441.70699999999</v>
       </c>
       <c r="G187" t="n">
-        <v>5.869333333333336</v>
+        <v>5.869833333333337</v>
       </c>
       <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5244,24 +5807,27 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>5.87</v>
+        <v>5.88</v>
       </c>
       <c r="C188" t="n">
-        <v>5.87</v>
+        <v>5.88</v>
       </c>
       <c r="D188" t="n">
-        <v>5.87</v>
+        <v>5.88</v>
       </c>
       <c r="E188" t="n">
-        <v>5.87</v>
+        <v>5.88</v>
       </c>
       <c r="F188" t="n">
-        <v>37663.4802</v>
+        <v>25469</v>
       </c>
       <c r="G188" t="n">
-        <v>5.86966666666667</v>
+        <v>5.869333333333336</v>
       </c>
       <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5270,24 +5836,27 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>5.93</v>
+        <v>5.87</v>
       </c>
       <c r="C189" t="n">
-        <v>5.93</v>
+        <v>5.87</v>
       </c>
       <c r="D189" t="n">
-        <v>5.93</v>
+        <v>5.87</v>
       </c>
       <c r="E189" t="n">
-        <v>5.93</v>
+        <v>5.87</v>
       </c>
       <c r="F189" t="n">
-        <v>83.3558</v>
+        <v>37663.4802</v>
       </c>
       <c r="G189" t="n">
-        <v>5.870000000000003</v>
+        <v>5.86966666666667</v>
       </c>
       <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5296,24 +5865,27 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>5.88</v>
+        <v>5.93</v>
       </c>
       <c r="C190" t="n">
-        <v>5.88</v>
+        <v>5.93</v>
       </c>
       <c r="D190" t="n">
-        <v>5.88</v>
+        <v>5.93</v>
       </c>
       <c r="E190" t="n">
-        <v>5.88</v>
+        <v>5.93</v>
       </c>
       <c r="F190" t="n">
-        <v>21967</v>
+        <v>83.3558</v>
       </c>
       <c r="G190" t="n">
-        <v>5.869500000000002</v>
+        <v>5.870000000000003</v>
       </c>
       <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5322,24 +5894,27 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>5.91</v>
+        <v>5.88</v>
       </c>
       <c r="C191" t="n">
-        <v>5.91</v>
+        <v>5.88</v>
       </c>
       <c r="D191" t="n">
-        <v>5.91</v>
+        <v>5.88</v>
       </c>
       <c r="E191" t="n">
-        <v>5.91</v>
+        <v>5.88</v>
       </c>
       <c r="F191" t="n">
-        <v>10</v>
+        <v>21967</v>
       </c>
       <c r="G191" t="n">
         <v>5.869500000000002</v>
       </c>
       <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5348,24 +5923,27 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>5.89</v>
+        <v>5.91</v>
       </c>
       <c r="C192" t="n">
-        <v>5.89</v>
+        <v>5.91</v>
       </c>
       <c r="D192" t="n">
-        <v>5.89</v>
+        <v>5.91</v>
       </c>
       <c r="E192" t="n">
-        <v>5.89</v>
+        <v>5.91</v>
       </c>
       <c r="F192" t="n">
-        <v>149744.3971</v>
+        <v>10</v>
       </c>
       <c r="G192" t="n">
-        <v>5.869166666666668</v>
+        <v>5.869500000000002</v>
       </c>
       <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5386,12 +5964,15 @@
         <v>5.89</v>
       </c>
       <c r="F193" t="n">
-        <v>63541.4261</v>
+        <v>149744.3971</v>
       </c>
       <c r="G193" t="n">
-        <v>5.868833333333334</v>
+        <v>5.869166666666668</v>
       </c>
       <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5400,24 +5981,27 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>5.87</v>
+        <v>5.89</v>
       </c>
       <c r="C194" t="n">
-        <v>5.86</v>
+        <v>5.89</v>
       </c>
       <c r="D194" t="n">
-        <v>5.87</v>
+        <v>5.89</v>
       </c>
       <c r="E194" t="n">
-        <v>5.86</v>
+        <v>5.89</v>
       </c>
       <c r="F194" t="n">
-        <v>59458.3083</v>
+        <v>63541.4261</v>
       </c>
       <c r="G194" t="n">
-        <v>5.868</v>
+        <v>5.868833333333334</v>
       </c>
       <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5426,24 +6010,27 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>5.89</v>
+        <v>5.87</v>
       </c>
       <c r="C195" t="n">
-        <v>5.89</v>
+        <v>5.86</v>
       </c>
       <c r="D195" t="n">
-        <v>5.89</v>
+        <v>5.87</v>
       </c>
       <c r="E195" t="n">
-        <v>5.89</v>
+        <v>5.86</v>
       </c>
       <c r="F195" t="n">
-        <v>10</v>
+        <v>59458.3083</v>
       </c>
       <c r="G195" t="n">
-        <v>5.867666666666667</v>
+        <v>5.868</v>
       </c>
       <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5464,12 +6051,15 @@
         <v>5.89</v>
       </c>
       <c r="F196" t="n">
-        <v>21487.691</v>
+        <v>10</v>
       </c>
       <c r="G196" t="n">
-        <v>5.867333333333333</v>
+        <v>5.867666666666667</v>
       </c>
       <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5478,24 +6068,27 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>5.87</v>
+        <v>5.89</v>
       </c>
       <c r="C197" t="n">
-        <v>5.87</v>
+        <v>5.89</v>
       </c>
       <c r="D197" t="n">
-        <v>5.87</v>
+        <v>5.89</v>
       </c>
       <c r="E197" t="n">
-        <v>5.87</v>
+        <v>5.89</v>
       </c>
       <c r="F197" t="n">
-        <v>121892</v>
+        <v>21487.691</v>
       </c>
       <c r="G197" t="n">
-        <v>5.866666666666665</v>
+        <v>5.867333333333333</v>
       </c>
       <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5516,12 +6109,15 @@
         <v>5.87</v>
       </c>
       <c r="F198" t="n">
-        <v>73394</v>
+        <v>121892</v>
       </c>
       <c r="G198" t="n">
-        <v>5.865999999999999</v>
+        <v>5.866666666666665</v>
       </c>
       <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5539,15 +6135,18 @@
         <v>5.87</v>
       </c>
       <c r="E199" t="n">
-        <v>5.86</v>
+        <v>5.87</v>
       </c>
       <c r="F199" t="n">
-        <v>55323.4417</v>
+        <v>73394</v>
       </c>
       <c r="G199" t="n">
-        <v>5.865333333333331</v>
+        <v>5.865999999999999</v>
       </c>
       <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5565,15 +6164,18 @@
         <v>5.87</v>
       </c>
       <c r="E200" t="n">
-        <v>5.87</v>
+        <v>5.86</v>
       </c>
       <c r="F200" t="n">
-        <v>84213</v>
+        <v>55323.4417</v>
       </c>
       <c r="G200" t="n">
-        <v>5.865666666666665</v>
+        <v>5.865333333333331</v>
       </c>
       <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5594,12 +6196,15 @@
         <v>5.87</v>
       </c>
       <c r="F201" t="n">
-        <v>43989</v>
+        <v>84213</v>
       </c>
       <c r="G201" t="n">
-        <v>5.864999999999998</v>
+        <v>5.865666666666665</v>
       </c>
       <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5620,12 +6225,15 @@
         <v>5.87</v>
       </c>
       <c r="F202" t="n">
-        <v>47311</v>
+        <v>43989</v>
       </c>
       <c r="G202" t="n">
-        <v>5.864333333333331</v>
+        <v>5.864999999999998</v>
       </c>
       <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5646,12 +6254,15 @@
         <v>5.87</v>
       </c>
       <c r="F203" t="n">
-        <v>59969</v>
+        <v>47311</v>
       </c>
       <c r="G203" t="n">
-        <v>5.863666666666663</v>
+        <v>5.864333333333331</v>
       </c>
       <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5672,12 +6283,15 @@
         <v>5.87</v>
       </c>
       <c r="F204" t="n">
-        <v>67925</v>
+        <v>59969</v>
       </c>
       <c r="G204" t="n">
-        <v>5.862999999999997</v>
+        <v>5.863666666666663</v>
       </c>
       <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5698,12 +6312,15 @@
         <v>5.87</v>
       </c>
       <c r="F205" t="n">
-        <v>66674</v>
+        <v>67925</v>
       </c>
       <c r="G205" t="n">
-        <v>5.862333333333329</v>
+        <v>5.862999999999997</v>
       </c>
       <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5724,12 +6341,15 @@
         <v>5.87</v>
       </c>
       <c r="F206" t="n">
-        <v>68285</v>
+        <v>66674</v>
       </c>
       <c r="G206" t="n">
-        <v>5.861666666666663</v>
+        <v>5.862333333333329</v>
       </c>
       <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5741,21 +6361,24 @@
         <v>5.87</v>
       </c>
       <c r="C207" t="n">
-        <v>5.86</v>
+        <v>5.87</v>
       </c>
       <c r="D207" t="n">
         <v>5.87</v>
       </c>
       <c r="E207" t="n">
-        <v>5.86</v>
+        <v>5.87</v>
       </c>
       <c r="F207" t="n">
-        <v>57806</v>
+        <v>68285</v>
       </c>
       <c r="G207" t="n">
-        <v>5.860833333333329</v>
+        <v>5.861666666666663</v>
       </c>
       <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5764,24 +6387,27 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>5.88</v>
+        <v>5.87</v>
       </c>
       <c r="C208" t="n">
-        <v>5.88</v>
+        <v>5.86</v>
       </c>
       <c r="D208" t="n">
-        <v>5.88</v>
+        <v>5.87</v>
       </c>
       <c r="E208" t="n">
-        <v>5.88</v>
+        <v>5.86</v>
       </c>
       <c r="F208" t="n">
-        <v>5600</v>
+        <v>57806</v>
       </c>
       <c r="G208" t="n">
-        <v>5.861333333333329</v>
+        <v>5.860833333333329</v>
       </c>
       <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5790,24 +6416,27 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>5.84</v>
+        <v>5.88</v>
       </c>
       <c r="C209" t="n">
-        <v>5.84</v>
+        <v>5.88</v>
       </c>
       <c r="D209" t="n">
-        <v>5.84</v>
+        <v>5.88</v>
       </c>
       <c r="E209" t="n">
-        <v>5.84</v>
+        <v>5.88</v>
       </c>
       <c r="F209" t="n">
-        <v>90427.7521</v>
+        <v>5600</v>
       </c>
       <c r="G209" t="n">
-        <v>5.860166666666661</v>
+        <v>5.861333333333329</v>
       </c>
       <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5828,12 +6457,15 @@
         <v>5.84</v>
       </c>
       <c r="F210" t="n">
-        <v>51807</v>
+        <v>90427.7521</v>
       </c>
       <c r="G210" t="n">
-        <v>5.860333333333328</v>
+        <v>5.860166666666661</v>
       </c>
       <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5854,12 +6486,15 @@
         <v>5.84</v>
       </c>
       <c r="F211" t="n">
-        <v>67877</v>
+        <v>51807</v>
       </c>
       <c r="G211" t="n">
-        <v>5.860499999999994</v>
+        <v>5.860333333333328</v>
       </c>
       <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5880,12 +6515,15 @@
         <v>5.84</v>
       </c>
       <c r="F212" t="n">
-        <v>68601</v>
+        <v>67877</v>
       </c>
       <c r="G212" t="n">
-        <v>5.860666666666661</v>
+        <v>5.860499999999994</v>
       </c>
       <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5906,12 +6544,15 @@
         <v>5.84</v>
       </c>
       <c r="F213" t="n">
-        <v>75595</v>
+        <v>68601</v>
       </c>
       <c r="G213" t="n">
-        <v>5.860833333333328</v>
+        <v>5.860666666666661</v>
       </c>
       <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5932,12 +6573,15 @@
         <v>5.84</v>
       </c>
       <c r="F214" t="n">
-        <v>47410</v>
+        <v>75595</v>
       </c>
       <c r="G214" t="n">
-        <v>5.860999999999994</v>
+        <v>5.860833333333328</v>
       </c>
       <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5946,7 +6590,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>5.83</v>
+        <v>5.84</v>
       </c>
       <c r="C215" t="n">
         <v>5.84</v>
@@ -5955,15 +6599,18 @@
         <v>5.84</v>
       </c>
       <c r="E215" t="n">
-        <v>5.83</v>
+        <v>5.84</v>
       </c>
       <c r="F215" t="n">
-        <v>106857.4139</v>
+        <v>47410</v>
       </c>
       <c r="G215" t="n">
-        <v>5.86116666666666</v>
+        <v>5.860999999999994</v>
       </c>
       <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5972,7 +6619,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>5.84</v>
+        <v>5.83</v>
       </c>
       <c r="C216" t="n">
         <v>5.84</v>
@@ -5981,15 +6628,18 @@
         <v>5.84</v>
       </c>
       <c r="E216" t="n">
-        <v>5.84</v>
+        <v>5.83</v>
       </c>
       <c r="F216" t="n">
-        <v>55707</v>
+        <v>106857.4139</v>
       </c>
       <c r="G216" t="n">
-        <v>5.861333333333326</v>
+        <v>5.86116666666666</v>
       </c>
       <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6007,15 +6657,18 @@
         <v>5.84</v>
       </c>
       <c r="E217" t="n">
-        <v>5.83</v>
+        <v>5.84</v>
       </c>
       <c r="F217" t="n">
-        <v>52404.0574</v>
+        <v>55707</v>
       </c>
       <c r="G217" t="n">
-        <v>5.861499999999993</v>
+        <v>5.861333333333326</v>
       </c>
       <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6033,15 +6686,18 @@
         <v>5.84</v>
       </c>
       <c r="E218" t="n">
-        <v>5.84</v>
+        <v>5.83</v>
       </c>
       <c r="F218" t="n">
-        <v>36869.1035</v>
+        <v>52404.0574</v>
       </c>
       <c r="G218" t="n">
-        <v>5.86166666666666</v>
+        <v>5.861499999999993</v>
       </c>
       <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6062,12 +6718,15 @@
         <v>5.84</v>
       </c>
       <c r="F219" t="n">
-        <v>346.7665</v>
+        <v>36869.1035</v>
       </c>
       <c r="G219" t="n">
-        <v>5.861833333333326</v>
+        <v>5.86166666666666</v>
       </c>
       <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6088,12 +6747,15 @@
         <v>5.84</v>
       </c>
       <c r="F220" t="n">
-        <v>15000</v>
+        <v>346.7665</v>
       </c>
       <c r="G220" t="n">
-        <v>5.860666666666659</v>
+        <v>5.861833333333326</v>
       </c>
       <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6102,24 +6764,27 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>5.87</v>
+        <v>5.84</v>
       </c>
       <c r="C221" t="n">
-        <v>5.87</v>
+        <v>5.84</v>
       </c>
       <c r="D221" t="n">
-        <v>5.87</v>
+        <v>5.84</v>
       </c>
       <c r="E221" t="n">
-        <v>5.87</v>
+        <v>5.84</v>
       </c>
       <c r="F221" t="n">
-        <v>100</v>
+        <v>15000</v>
       </c>
       <c r="G221" t="n">
         <v>5.860666666666659</v>
       </c>
       <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6131,21 +6796,24 @@
         <v>5.87</v>
       </c>
       <c r="C222" t="n">
-        <v>5.84</v>
+        <v>5.87</v>
       </c>
       <c r="D222" t="n">
         <v>5.87</v>
       </c>
       <c r="E222" t="n">
-        <v>5.84</v>
+        <v>5.87</v>
       </c>
       <c r="F222" t="n">
-        <v>39.95</v>
+        <v>100</v>
       </c>
       <c r="G222" t="n">
-        <v>5.860166666666658</v>
+        <v>5.860666666666659</v>
       </c>
       <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6154,24 +6822,27 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>5.84</v>
+        <v>5.87</v>
       </c>
       <c r="C223" t="n">
         <v>5.84</v>
       </c>
       <c r="D223" t="n">
-        <v>5.84</v>
+        <v>5.87</v>
       </c>
       <c r="E223" t="n">
         <v>5.84</v>
       </c>
       <c r="F223" t="n">
-        <v>11970</v>
+        <v>39.95</v>
       </c>
       <c r="G223" t="n">
-        <v>5.859666666666658</v>
+        <v>5.860166666666658</v>
       </c>
       <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6192,12 +6863,15 @@
         <v>5.84</v>
       </c>
       <c r="F224" t="n">
-        <v>84538.9186</v>
+        <v>11970</v>
       </c>
       <c r="G224" t="n">
-        <v>5.859833333333325</v>
+        <v>5.859666666666658</v>
       </c>
       <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6215,15 +6889,18 @@
         <v>5.84</v>
       </c>
       <c r="E225" t="n">
-        <v>5.83</v>
+        <v>5.84</v>
       </c>
       <c r="F225" t="n">
-        <v>87902.95</v>
+        <v>84538.9186</v>
       </c>
       <c r="G225" t="n">
-        <v>5.859999999999991</v>
+        <v>5.859833333333325</v>
       </c>
       <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6241,15 +6918,18 @@
         <v>5.84</v>
       </c>
       <c r="E226" t="n">
-        <v>5.84</v>
+        <v>5.83</v>
       </c>
       <c r="F226" t="n">
-        <v>10250.776</v>
+        <v>87902.95</v>
       </c>
       <c r="G226" t="n">
         <v>5.859999999999991</v>
       </c>
       <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6258,24 +6938,27 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>5.87</v>
+        <v>5.84</v>
       </c>
       <c r="C227" t="n">
-        <v>5.88</v>
+        <v>5.84</v>
       </c>
       <c r="D227" t="n">
-        <v>5.88</v>
+        <v>5.84</v>
       </c>
       <c r="E227" t="n">
-        <v>5.87</v>
+        <v>5.84</v>
       </c>
       <c r="F227" t="n">
-        <v>69918.4127</v>
+        <v>10250.776</v>
       </c>
       <c r="G227" t="n">
-        <v>5.860833333333324</v>
+        <v>5.859999999999991</v>
       </c>
       <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6284,7 +6967,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>5.88</v>
+        <v>5.87</v>
       </c>
       <c r="C228" t="n">
         <v>5.88</v>
@@ -6293,15 +6976,18 @@
         <v>5.88</v>
       </c>
       <c r="E228" t="n">
-        <v>5.88</v>
+        <v>5.87</v>
       </c>
       <c r="F228" t="n">
-        <v>62918</v>
+        <v>69918.4127</v>
       </c>
       <c r="G228" t="n">
-        <v>5.861666666666658</v>
+        <v>5.860833333333324</v>
       </c>
       <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6319,15 +7005,18 @@
         <v>5.88</v>
       </c>
       <c r="E229" t="n">
-        <v>5.87</v>
+        <v>5.88</v>
       </c>
       <c r="F229" t="n">
-        <v>100383.95</v>
+        <v>62918</v>
       </c>
       <c r="G229" t="n">
-        <v>5.862499999999992</v>
+        <v>5.861666666666658</v>
       </c>
       <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6345,535 +7034,18 @@
         <v>5.88</v>
       </c>
       <c r="E230" t="n">
-        <v>5.88</v>
+        <v>5.87</v>
       </c>
       <c r="F230" t="n">
-        <v>4544.5853</v>
+        <v>100383.95</v>
       </c>
       <c r="G230" t="n">
-        <v>5.863333333333325</v>
+        <v>5.862499999999992</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="C231" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="D231" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="E231" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="F231" t="n">
-        <v>39.95</v>
-      </c>
-      <c r="G231" t="n">
-        <v>5.863833333333326</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="C232" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="D232" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="E232" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="F232" t="n">
-        <v>5200</v>
-      </c>
-      <c r="G232" t="n">
-        <v>5.864333333333326</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="C233" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="D233" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="E233" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="F233" t="n">
-        <v>10</v>
-      </c>
-      <c r="G233" t="n">
-        <v>5.865499999999993</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="C234" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="D234" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="E234" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="F234" t="n">
-        <v>161562.1582</v>
-      </c>
-      <c r="G234" t="n">
-        <v>5.867333333333326</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="C235" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="D235" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="E235" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="F235" t="n">
-        <v>21</v>
-      </c>
-      <c r="G235" t="n">
-        <v>5.868499999999993</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="C236" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="D236" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="E236" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="F236" t="n">
-        <v>78.84999999999999</v>
-      </c>
-      <c r="G236" t="n">
-        <v>5.868833333333326</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="C237" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="D237" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="E237" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="F237" t="n">
-        <v>10</v>
-      </c>
-      <c r="G237" t="n">
-        <v>5.870166666666659</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="C238" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="D238" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="E238" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="F238" t="n">
-        <v>25676.987</v>
-      </c>
-      <c r="G238" t="n">
-        <v>5.871166666666658</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>5.92</v>
-      </c>
-      <c r="C239" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="D239" t="n">
-        <v>5.92</v>
-      </c>
-      <c r="E239" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="F239" t="n">
-        <v>148081.4839</v>
-      </c>
-      <c r="G239" t="n">
-        <v>5.872333333333327</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="C240" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="D240" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="E240" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="F240" t="n">
-        <v>39.95</v>
-      </c>
-      <c r="G240" t="n">
-        <v>5.872999999999993</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="C241" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="D241" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="E241" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="F241" t="n">
-        <v>17398.706</v>
-      </c>
-      <c r="G241" t="n">
-        <v>5.873499999999993</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="C242" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="D242" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="E242" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="F242" t="n">
-        <v>39.95</v>
-      </c>
-      <c r="G242" t="n">
-        <v>5.873333333333326</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="C243" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="D243" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="E243" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="F243" t="n">
-        <v>23371.1677</v>
-      </c>
-      <c r="G243" t="n">
-        <v>5.87316666666666</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="C244" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="D244" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="E244" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="F244" t="n">
-        <v>100</v>
-      </c>
-      <c r="G244" t="n">
-        <v>5.873999999999993</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B245" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="C245" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="D245" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="E245" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="F245" t="n">
-        <v>25572.9444</v>
-      </c>
-      <c r="G245" t="n">
-        <v>5.872833333333327</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="B246" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="C246" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="D246" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="E246" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="F246" t="n">
-        <v>8939.2845</v>
-      </c>
-      <c r="G246" t="n">
-        <v>5.87166666666666</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>245</v>
-      </c>
-      <c r="B247" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="C247" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="D247" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="E247" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="F247" t="n">
-        <v>10</v>
-      </c>
-      <c r="G247" t="n">
-        <v>5.872499999999993</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="B248" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="C248" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="D248" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="E248" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="F248" t="n">
-        <v>432.597</v>
-      </c>
-      <c r="G248" t="n">
-        <v>5.872333333333327</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>247</v>
-      </c>
-      <c r="B249" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="C249" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="D249" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="E249" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="F249" t="n">
-        <v>10</v>
-      </c>
-      <c r="G249" t="n">
-        <v>5.872333333333327</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
-        <v>248</v>
-      </c>
-      <c r="B250" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="C250" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="D250" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="E250" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="F250" t="n">
-        <v>39.95</v>
-      </c>
-      <c r="G250" t="n">
-        <v>5.871999999999995</v>
-      </c>
-      <c r="H250" t="n">
+      <c r="I230" t="n">
         <v>0</v>
       </c>
     </row>
